--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.631560693880317</v>
+        <v>2.63156069388026</v>
       </c>
       <c r="C2">
-        <v>0.6678889470516651</v>
+        <v>0.6678889470521483</v>
       </c>
       <c r="D2">
-        <v>0.2107744941968122</v>
+        <v>0.2107744941965137</v>
       </c>
       <c r="E2">
-        <v>1.470959520261871</v>
+        <v>1.470959520262014</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.008263471990801</v>
+        <v>9.00826347199083</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7401819267564136</v>
+        <v>0.7401819267563852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.229654863419512</v>
+        <v>2.229654863418943</v>
       </c>
       <c r="C3">
         <v>0.5622443725526978</v>
@@ -459,13 +459,13 @@
         <v>0.1801343617311204</v>
       </c>
       <c r="E3">
-        <v>1.243397083593166</v>
+        <v>1.243397083593194</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.800704825352597</v>
+        <v>7.800704825352568</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6256326705850341</v>
+        <v>0.6256326705850412</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.993169816301389</v>
+        <v>1.993169816301133</v>
       </c>
       <c r="C4">
-        <v>0.5004356948527686</v>
+        <v>0.5004356948528255</v>
       </c>
       <c r="D4">
-        <v>0.1619511138239034</v>
+        <v>0.1619511138238892</v>
       </c>
       <c r="E4">
-        <v>1.109797833416906</v>
+        <v>1.109797833416806</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5583287852421535</v>
+        <v>0.558328785242125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.898937151577996</v>
+        <v>1.898937151578053</v>
       </c>
       <c r="C5">
-        <v>0.475874026709846</v>
+        <v>0.4758740267112103</v>
       </c>
       <c r="D5">
-        <v>0.1546724213971231</v>
+        <v>0.1546724213974358</v>
       </c>
       <c r="E5">
-        <v>1.056602451498819</v>
+        <v>1.056602451498847</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.797477371622819</v>
+        <v>6.797477371622733</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5315287783887186</v>
+        <v>0.5315287783887399</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>1.883407176410174</v>
       </c>
       <c r="C6">
-        <v>0.4718296558914403</v>
+        <v>0.4718296558918951</v>
       </c>
       <c r="D6">
         <v>0.1534710013194172</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.750137019957435</v>
+        <v>6.75013701995735</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5271129891457278</v>
+        <v>0.5271129891457136</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.991890850633638</v>
+        <v>1.991890850633581</v>
       </c>
       <c r="C7">
-        <v>0.5001020848309565</v>
+        <v>0.5001020848310418</v>
       </c>
       <c r="D7">
-        <v>0.1618524528932994</v>
+        <v>0.1618524528933847</v>
       </c>
       <c r="E7">
-        <v>1.109075721039744</v>
+        <v>1.109075721039716</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.080384780166014</v>
+        <v>7.080384780165929</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5579649750685789</v>
+        <v>0.5579649750686002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.490552795841154</v>
+        <v>2.490552795840642</v>
       </c>
       <c r="C8">
-        <v>0.630733755063801</v>
+        <v>0.6307337550638294</v>
       </c>
       <c r="D8">
-        <v>0.2000611940193551</v>
+        <v>0.2000611940194119</v>
       </c>
       <c r="E8">
-        <v>1.391030937279496</v>
+        <v>1.391030937279467</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.585964001169998</v>
+        <v>8.585964001169884</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.699967641768481</v>
+        <v>0.6999676417684739</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.575453527402658</v>
+        <v>3.575453527402772</v>
       </c>
       <c r="C9">
-        <v>0.9193168701412446</v>
+        <v>0.9193168701408183</v>
       </c>
       <c r="D9">
-        <v>0.2815067049946691</v>
+        <v>0.2815067049952091</v>
       </c>
       <c r="E9">
-        <v>2.009394294519169</v>
+        <v>2.009394294519254</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.80019973116183</v>
+        <v>11.80019973116157</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.010121308847232</v>
+        <v>1.010121308847218</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.484841121049783</v>
+        <v>4.48484112104984</v>
       </c>
       <c r="C10">
-        <v>1.166396471283633</v>
+        <v>1.166396471283207</v>
       </c>
       <c r="D10">
-        <v>0.3480865824190431</v>
+        <v>0.3480865824193984</v>
       </c>
       <c r="E10">
-        <v>2.535646932883054</v>
+        <v>2.535646932882969</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.43720826246118</v>
+        <v>14.4372082624613</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.27152475884229</v>
+        <v>1.271524758842261</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.938636450631975</v>
+        <v>4.938636450632089</v>
       </c>
       <c r="C11">
         <v>1.291599256398257</v>
       </c>
       <c r="D11">
-        <v>0.3807417769903196</v>
+        <v>0.3807417769899359</v>
       </c>
       <c r="E11">
-        <v>2.801762418207986</v>
+        <v>2.801762418207858</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.73475538452323</v>
+        <v>15.73475538452334</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.402491277936662</v>
+        <v>1.402491277936619</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>5.118196382826909</v>
       </c>
       <c r="C12">
-        <v>1.34150498356874</v>
+        <v>1.341504983568797</v>
       </c>
       <c r="D12">
-        <v>0.3935578245309159</v>
+        <v>0.3935578245312286</v>
       </c>
       <c r="E12">
-        <v>2.907799911026743</v>
+        <v>2.907799911026757</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.2448619053423</v>
+        <v>16.24486190534225</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.454412651035199</v>
+        <v>1.45441265103517</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.079142276743539</v>
+        <v>5.079142276743937</v>
       </c>
       <c r="C13">
-        <v>1.330632672164768</v>
+        <v>1.330632672165734</v>
       </c>
       <c r="D13">
         <v>0.3907754394522414</v>
       </c>
       <c r="E13">
-        <v>2.884699340900625</v>
+        <v>2.884699340900553</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.13407350312389</v>
+        <v>16.13407350312394</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.443114915583109</v>
+        <v>1.443114915583095</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.95324038147038</v>
+        <v>4.953240381470039</v>
       </c>
       <c r="C14">
-        <v>1.29565035947968</v>
+        <v>1.295650359479652</v>
       </c>
       <c r="D14">
-        <v>0.3817863625642133</v>
+        <v>0.3817863625644975</v>
       </c>
       <c r="E14">
-        <v>2.810370338625489</v>
+        <v>2.810370338625503</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.77631322120214</v>
+        <v>15.7763132212022</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.406711996344526</v>
+        <v>1.406711996344498</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.877197568110944</v>
+        <v>4.87719756811083</v>
       </c>
       <c r="C15">
-        <v>1.274571300064792</v>
+        <v>1.274571300064224</v>
       </c>
       <c r="D15">
-        <v>0.3763428711729091</v>
+        <v>0.3763428711731365</v>
       </c>
       <c r="E15">
-        <v>2.765579781892598</v>
+        <v>2.765579781892555</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.55978529014243</v>
+        <v>15.55978529014249</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.38473880008597</v>
+        <v>1.384738800085913</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.456142290862033</v>
+        <v>4.45614229086209</v>
       </c>
       <c r="C16">
-        <v>1.158522117365095</v>
+        <v>1.158522117364498</v>
       </c>
       <c r="D16">
-        <v>0.346008656216199</v>
+        <v>0.3460086562159432</v>
       </c>
       <c r="E16">
-        <v>2.518902324009446</v>
+        <v>2.518902324009389</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.35474340427237</v>
+        <v>14.35474340427231</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.209288336158124</v>
+        <v>4.209288336157556</v>
       </c>
       <c r="C17">
-        <v>1.091001223511142</v>
+        <v>1.091001223510517</v>
       </c>
       <c r="D17">
-        <v>0.3280728058808222</v>
+        <v>0.3280728058811775</v>
       </c>
       <c r="E17">
-        <v>2.37526402770817</v>
+        <v>2.375264027708155</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.64340961912936</v>
+        <v>13.64340961912944</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.192172216366771</v>
+        <v>1.192172216366743</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.070930984889856</v>
+        <v>4.070930984890083</v>
       </c>
       <c r="C18">
-        <v>1.053320146191538</v>
+        <v>1.05332014619168</v>
       </c>
       <c r="D18">
-        <v>0.3179711251814581</v>
+        <v>0.3179711251813018</v>
       </c>
       <c r="E18">
-        <v>2.295052037063101</v>
+        <v>2.295052037063058</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.24313508955936</v>
+        <v>13.2431350895591</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.152376791662903</v>
+        <v>1.152376791662846</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>4.024660006825229</v>
       </c>
       <c r="C19">
-        <v>1.04074428012396</v>
+        <v>1.040744280124386</v>
       </c>
       <c r="D19">
-        <v>0.314584963835884</v>
+        <v>0.3145849638348039</v>
       </c>
       <c r="E19">
-        <v>2.268271990707916</v>
+        <v>2.26827199070793</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.10901509210044</v>
+        <v>13.10901509210046</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.139075066691959</v>
+        <v>1.139075066692001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.235179144057497</v>
+        <v>4.235179144057724</v>
       </c>
       <c r="C20">
-        <v>1.098065426841657</v>
+        <v>1.098065426840634</v>
       </c>
       <c r="D20">
-        <v>0.3299592278923598</v>
+        <v>0.3299592278928429</v>
       </c>
       <c r="E20">
         <v>2.390297123712514</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.71818612429877</v>
+        <v>13.71818612429885</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.199622685435031</v>
+        <v>1.199622685435045</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.989992017863813</v>
+        <v>4.989992017863869</v>
       </c>
       <c r="C21">
-        <v>1.305851301457437</v>
+        <v>1.305851301457409</v>
       </c>
       <c r="D21">
         <v>0.384413374384053</v>
       </c>
       <c r="E21">
-        <v>2.832045299826575</v>
+        <v>2.832045299826561</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.417335349752676</v>
+        <v>1.417335349752634</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.52983486136759</v>
+        <v>5.529834861367931</v>
       </c>
       <c r="C22">
-        <v>1.456714187386325</v>
+        <v>1.456714187385501</v>
       </c>
       <c r="D22">
-        <v>0.4227116681245349</v>
+        <v>0.4227116681245917</v>
       </c>
       <c r="E22">
-        <v>3.152617648865458</v>
+        <v>3.15261764886553</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.40722153122732</v>
+        <v>17.40722153122715</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.573660722687137</v>
+        <v>1.573660722687094</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.236586659493582</v>
+        <v>5.23658665949381</v>
       </c>
       <c r="C23">
-        <v>1.374524899501665</v>
+        <v>1.374524899501949</v>
       </c>
       <c r="D23">
-        <v>0.401975123357559</v>
+        <v>0.4019751233577011</v>
       </c>
       <c r="E23">
-        <v>2.977958631270582</v>
+        <v>2.977958631270724</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.58017027488523</v>
+        <v>16.58017027488552</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.488677808120912</v>
+        <v>1.488677808120812</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.223462949822931</v>
+        <v>4.223462949823102</v>
       </c>
       <c r="C24">
-        <v>1.09486820249694</v>
+        <v>1.094868202495661</v>
       </c>
       <c r="D24">
-        <v>0.3291057304537048</v>
+        <v>0.3291057304533211</v>
       </c>
       <c r="E24">
-        <v>2.383493384732915</v>
+        <v>2.38349338473293</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.68435295353959</v>
+        <v>13.68435295353984</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.19625103518861</v>
+        <v>1.196251035188624</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.266395590995216</v>
+        <v>3.266395590995728</v>
       </c>
       <c r="C25">
-        <v>0.8364525541183241</v>
+        <v>0.8364525541182957</v>
       </c>
       <c r="D25">
-        <v>0.258531778173392</v>
+        <v>0.2585317781729515</v>
       </c>
       <c r="E25">
-        <v>1.832351548403423</v>
+        <v>1.832351548403395</v>
       </c>
       <c r="F25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.63156069388026</v>
+        <v>2.631560693880317</v>
       </c>
       <c r="C2">
-        <v>0.6678889470521483</v>
+        <v>0.6678889470516651</v>
       </c>
       <c r="D2">
-        <v>0.2107744941965137</v>
+        <v>0.2107744941968122</v>
       </c>
       <c r="E2">
-        <v>1.470959520262014</v>
+        <v>1.470959520261871</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.00826347199083</v>
+        <v>9.008263471990801</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7401819267563852</v>
+        <v>0.7401819267564136</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.229654863418943</v>
+        <v>2.229654863419512</v>
       </c>
       <c r="C3">
         <v>0.5622443725526978</v>
@@ -459,13 +459,13 @@
         <v>0.1801343617311204</v>
       </c>
       <c r="E3">
-        <v>1.243397083593194</v>
+        <v>1.243397083593166</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.800704825352568</v>
+        <v>7.800704825352597</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6256326705850412</v>
+        <v>0.6256326705850341</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.993169816301133</v>
+        <v>1.993169816301389</v>
       </c>
       <c r="C4">
-        <v>0.5004356948528255</v>
+        <v>0.5004356948527686</v>
       </c>
       <c r="D4">
-        <v>0.1619511138238892</v>
+        <v>0.1619511138239034</v>
       </c>
       <c r="E4">
-        <v>1.109797833416806</v>
+        <v>1.109797833416906</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.558328785242125</v>
+        <v>0.5583287852421535</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.898937151578053</v>
+        <v>1.898937151577996</v>
       </c>
       <c r="C5">
-        <v>0.4758740267112103</v>
+        <v>0.475874026709846</v>
       </c>
       <c r="D5">
-        <v>0.1546724213974358</v>
+        <v>0.1546724213971231</v>
       </c>
       <c r="E5">
-        <v>1.056602451498847</v>
+        <v>1.056602451498819</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.797477371622733</v>
+        <v>6.797477371622819</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5315287783887399</v>
+        <v>0.5315287783887186</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>1.883407176410174</v>
       </c>
       <c r="C6">
-        <v>0.4718296558918951</v>
+        <v>0.4718296558914403</v>
       </c>
       <c r="D6">
         <v>0.1534710013194172</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.75013701995735</v>
+        <v>6.750137019957435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5271129891457136</v>
+        <v>0.5271129891457278</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.991890850633581</v>
+        <v>1.991890850633638</v>
       </c>
       <c r="C7">
-        <v>0.5001020848310418</v>
+        <v>0.5001020848309565</v>
       </c>
       <c r="D7">
-        <v>0.1618524528933847</v>
+        <v>0.1618524528932994</v>
       </c>
       <c r="E7">
-        <v>1.109075721039716</v>
+        <v>1.109075721039744</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.080384780165929</v>
+        <v>7.080384780166014</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5579649750686002</v>
+        <v>0.5579649750685789</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.490552795840642</v>
+        <v>2.490552795841154</v>
       </c>
       <c r="C8">
-        <v>0.6307337550638294</v>
+        <v>0.630733755063801</v>
       </c>
       <c r="D8">
-        <v>0.2000611940194119</v>
+        <v>0.2000611940193551</v>
       </c>
       <c r="E8">
-        <v>1.391030937279467</v>
+        <v>1.391030937279496</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.585964001169884</v>
+        <v>8.585964001169998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6999676417684739</v>
+        <v>0.699967641768481</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.575453527402772</v>
+        <v>3.575453527402658</v>
       </c>
       <c r="C9">
-        <v>0.9193168701408183</v>
+        <v>0.9193168701412446</v>
       </c>
       <c r="D9">
-        <v>0.2815067049952091</v>
+        <v>0.2815067049946691</v>
       </c>
       <c r="E9">
-        <v>2.009394294519254</v>
+        <v>2.009394294519169</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.80019973116157</v>
+        <v>11.80019973116183</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.010121308847218</v>
+        <v>1.010121308847232</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.48484112104984</v>
+        <v>4.484841121049783</v>
       </c>
       <c r="C10">
-        <v>1.166396471283207</v>
+        <v>1.166396471283633</v>
       </c>
       <c r="D10">
-        <v>0.3480865824193984</v>
+        <v>0.3480865824190431</v>
       </c>
       <c r="E10">
-        <v>2.535646932882969</v>
+        <v>2.535646932883054</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.4372082624613</v>
+        <v>14.43720826246118</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.271524758842261</v>
+        <v>1.27152475884229</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.938636450632089</v>
+        <v>4.938636450631975</v>
       </c>
       <c r="C11">
         <v>1.291599256398257</v>
       </c>
       <c r="D11">
-        <v>0.3807417769899359</v>
+        <v>0.3807417769903196</v>
       </c>
       <c r="E11">
-        <v>2.801762418207858</v>
+        <v>2.801762418207986</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.73475538452334</v>
+        <v>15.73475538452323</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.402491277936619</v>
+        <v>1.402491277936662</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>5.118196382826909</v>
       </c>
       <c r="C12">
-        <v>1.341504983568797</v>
+        <v>1.34150498356874</v>
       </c>
       <c r="D12">
-        <v>0.3935578245312286</v>
+        <v>0.3935578245309159</v>
       </c>
       <c r="E12">
-        <v>2.907799911026757</v>
+        <v>2.907799911026743</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.24486190534225</v>
+        <v>16.2448619053423</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.45441265103517</v>
+        <v>1.454412651035199</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.079142276743937</v>
+        <v>5.079142276743539</v>
       </c>
       <c r="C13">
-        <v>1.330632672165734</v>
+        <v>1.330632672164768</v>
       </c>
       <c r="D13">
         <v>0.3907754394522414</v>
       </c>
       <c r="E13">
-        <v>2.884699340900553</v>
+        <v>2.884699340900625</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.13407350312394</v>
+        <v>16.13407350312389</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.443114915583095</v>
+        <v>1.443114915583109</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.953240381470039</v>
+        <v>4.95324038147038</v>
       </c>
       <c r="C14">
-        <v>1.295650359479652</v>
+        <v>1.29565035947968</v>
       </c>
       <c r="D14">
-        <v>0.3817863625644975</v>
+        <v>0.3817863625642133</v>
       </c>
       <c r="E14">
-        <v>2.810370338625503</v>
+        <v>2.810370338625489</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.7763132212022</v>
+        <v>15.77631322120214</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.406711996344498</v>
+        <v>1.406711996344526</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.87719756811083</v>
+        <v>4.877197568110944</v>
       </c>
       <c r="C15">
-        <v>1.274571300064224</v>
+        <v>1.274571300064792</v>
       </c>
       <c r="D15">
-        <v>0.3763428711731365</v>
+        <v>0.3763428711729091</v>
       </c>
       <c r="E15">
-        <v>2.765579781892555</v>
+        <v>2.765579781892598</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.55978529014249</v>
+        <v>15.55978529014243</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.384738800085913</v>
+        <v>1.38473880008597</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.45614229086209</v>
+        <v>4.456142290862033</v>
       </c>
       <c r="C16">
-        <v>1.158522117364498</v>
+        <v>1.158522117365095</v>
       </c>
       <c r="D16">
-        <v>0.3460086562159432</v>
+        <v>0.346008656216199</v>
       </c>
       <c r="E16">
-        <v>2.518902324009389</v>
+        <v>2.518902324009446</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.35474340427231</v>
+        <v>14.35474340427237</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.209288336157556</v>
+        <v>4.209288336158124</v>
       </c>
       <c r="C17">
-        <v>1.091001223510517</v>
+        <v>1.091001223511142</v>
       </c>
       <c r="D17">
-        <v>0.3280728058811775</v>
+        <v>0.3280728058808222</v>
       </c>
       <c r="E17">
-        <v>2.375264027708155</v>
+        <v>2.37526402770817</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.64340961912944</v>
+        <v>13.64340961912936</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.192172216366743</v>
+        <v>1.192172216366771</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.070930984890083</v>
+        <v>4.070930984889856</v>
       </c>
       <c r="C18">
-        <v>1.05332014619168</v>
+        <v>1.053320146191538</v>
       </c>
       <c r="D18">
-        <v>0.3179711251813018</v>
+        <v>0.3179711251814581</v>
       </c>
       <c r="E18">
-        <v>2.295052037063058</v>
+        <v>2.295052037063101</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.2431350895591</v>
+        <v>13.24313508955936</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.152376791662846</v>
+        <v>1.152376791662903</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>4.024660006825229</v>
       </c>
       <c r="C19">
-        <v>1.040744280124386</v>
+        <v>1.04074428012396</v>
       </c>
       <c r="D19">
-        <v>0.3145849638348039</v>
+        <v>0.314584963835884</v>
       </c>
       <c r="E19">
-        <v>2.26827199070793</v>
+        <v>2.268271990707916</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.10901509210046</v>
+        <v>13.10901509210044</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.139075066692001</v>
+        <v>1.139075066691959</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.235179144057724</v>
+        <v>4.235179144057497</v>
       </c>
       <c r="C20">
-        <v>1.098065426840634</v>
+        <v>1.098065426841657</v>
       </c>
       <c r="D20">
-        <v>0.3299592278928429</v>
+        <v>0.3299592278923598</v>
       </c>
       <c r="E20">
         <v>2.390297123712514</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.71818612429885</v>
+        <v>13.71818612429877</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.199622685435045</v>
+        <v>1.199622685435031</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.989992017863869</v>
+        <v>4.989992017863813</v>
       </c>
       <c r="C21">
-        <v>1.305851301457409</v>
+        <v>1.305851301457437</v>
       </c>
       <c r="D21">
         <v>0.384413374384053</v>
       </c>
       <c r="E21">
-        <v>2.832045299826561</v>
+        <v>2.832045299826575</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.417335349752634</v>
+        <v>1.417335349752676</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.529834861367931</v>
+        <v>5.52983486136759</v>
       </c>
       <c r="C22">
-        <v>1.456714187385501</v>
+        <v>1.456714187386325</v>
       </c>
       <c r="D22">
-        <v>0.4227116681245917</v>
+        <v>0.4227116681245349</v>
       </c>
       <c r="E22">
-        <v>3.15261764886553</v>
+        <v>3.152617648865458</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.40722153122715</v>
+        <v>17.40722153122732</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.573660722687094</v>
+        <v>1.573660722687137</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.23658665949381</v>
+        <v>5.236586659493582</v>
       </c>
       <c r="C23">
-        <v>1.374524899501949</v>
+        <v>1.374524899501665</v>
       </c>
       <c r="D23">
-        <v>0.4019751233577011</v>
+        <v>0.401975123357559</v>
       </c>
       <c r="E23">
-        <v>2.977958631270724</v>
+        <v>2.977958631270582</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.58017027488552</v>
+        <v>16.58017027488523</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.488677808120812</v>
+        <v>1.488677808120912</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.223462949823102</v>
+        <v>4.223462949822931</v>
       </c>
       <c r="C24">
-        <v>1.094868202495661</v>
+        <v>1.09486820249694</v>
       </c>
       <c r="D24">
-        <v>0.3291057304533211</v>
+        <v>0.3291057304537048</v>
       </c>
       <c r="E24">
-        <v>2.38349338473293</v>
+        <v>2.383493384732915</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.68435295353984</v>
+        <v>13.68435295353959</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.196251035188624</v>
+        <v>1.19625103518861</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.266395590995728</v>
+        <v>3.266395590995216</v>
       </c>
       <c r="C25">
-        <v>0.8364525541182957</v>
+        <v>0.8364525541183241</v>
       </c>
       <c r="D25">
-        <v>0.2585317781729515</v>
+        <v>0.258531778173392</v>
       </c>
       <c r="E25">
-        <v>1.832351548403395</v>
+        <v>1.832351548403423</v>
       </c>
       <c r="F25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.631560693880317</v>
+        <v>2.630541123846569</v>
       </c>
       <c r="C2">
-        <v>0.6678889470516651</v>
+        <v>0.6673977349539655</v>
       </c>
       <c r="D2">
-        <v>0.2107744941968122</v>
+        <v>0.2107377459087587</v>
       </c>
       <c r="E2">
-        <v>1.470959520261871</v>
+        <v>1.470671048557946</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.008263471990801</v>
+        <v>2.951912467496641</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.005325307926029</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7401819267564136</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7398349455326994</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.229654863419512</v>
+        <v>2.22898513982193</v>
       </c>
       <c r="C3">
-        <v>0.5622443725526978</v>
+        <v>0.5619018451311888</v>
       </c>
       <c r="D3">
-        <v>0.1801343617311204</v>
+        <v>0.1801099027761239</v>
       </c>
       <c r="E3">
-        <v>1.243397083593166</v>
+        <v>1.243207684648567</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.800704825352597</v>
+        <v>2.548517517006729</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.209176821570651</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6256326705850341</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6254001202198012</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.993169816301389</v>
+        <v>1.992674131466998</v>
       </c>
       <c r="C4">
-        <v>0.5004356948527686</v>
+        <v>0.5001697723957648</v>
       </c>
       <c r="D4">
-        <v>0.1619511138239034</v>
+        <v>0.1619327107675446</v>
       </c>
       <c r="E4">
-        <v>1.109797833416906</v>
+        <v>1.109656267871884</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.084272107889717</v>
+        <v>2.309123672016113</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.736859082837043</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5583287852421535</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5581537819073716</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.898937151577996</v>
+        <v>1.89850420051917</v>
       </c>
       <c r="C5">
-        <v>0.475874026709846</v>
+        <v>0.4756363854925496</v>
       </c>
       <c r="D5">
-        <v>0.1546724213971231</v>
+        <v>0.1546561961845043</v>
       </c>
       <c r="E5">
-        <v>1.056602451498819</v>
+        <v>1.056477917842628</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.797477371622819</v>
+        <v>2.213277155011497</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.547794862905022</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5315287783887186</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5313746751142148</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.883407176410174</v>
+        <v>1.882984199291968</v>
       </c>
       <c r="C6">
-        <v>0.4718296558914403</v>
+        <v>0.4715965523949421</v>
       </c>
       <c r="D6">
-        <v>0.1534710013194172</v>
+        <v>0.1534551223163163</v>
       </c>
       <c r="E6">
-        <v>1.04783713663663</v>
+        <v>1.047715302017579</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.750137019957435</v>
+        <v>2.197455182015176</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.516587180079114</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5271129891457278</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.526962218415477</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.991890850633638</v>
+        <v>1.991396042616003</v>
       </c>
       <c r="C7">
-        <v>0.5001020848309565</v>
+        <v>0.4998365547940864</v>
       </c>
       <c r="D7">
-        <v>0.1618524528932994</v>
+        <v>0.1618340802846774</v>
       </c>
       <c r="E7">
-        <v>1.109075721039744</v>
+        <v>1.108934394248138</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.080384780166014</v>
+        <v>2.30782459044309</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.734296394119696</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5579649750685789</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5577902631795411</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.490552795841154</v>
+        <v>2.489663719647979</v>
       </c>
       <c r="C8">
-        <v>0.630733755063801</v>
+        <v>0.6302973736349315</v>
       </c>
       <c r="D8">
-        <v>0.2000611940193551</v>
+        <v>0.2000290504051065</v>
       </c>
       <c r="E8">
-        <v>1.391030937279496</v>
+        <v>1.390779888069716</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.585964001169998</v>
+        <v>2.810854065692467</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.726896406181197</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.699967641768481</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6996631951847334</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.575453527402658</v>
+        <v>3.573339167707672</v>
       </c>
       <c r="C9">
-        <v>0.9193168701412446</v>
+        <v>0.9183817409408164</v>
       </c>
       <c r="D9">
-        <v>0.2815067049946691</v>
+        <v>0.2814303478602085</v>
       </c>
       <c r="E9">
-        <v>2.009394294519169</v>
+        <v>2.0087708137644</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.80019973116183</v>
+        <v>3.884151565859014</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.846120994244018</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.010121308847232</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.009421297503934</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.484841121049783</v>
+        <v>4.481278738034462</v>
       </c>
       <c r="C10">
-        <v>1.166396471283633</v>
+        <v>1.16489546548641</v>
       </c>
       <c r="D10">
-        <v>0.3480865824190431</v>
+        <v>0.347955589318488</v>
       </c>
       <c r="E10">
-        <v>2.535646932883054</v>
+        <v>2.534528718394313</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.43720826246118</v>
+        <v>4.764180634016384</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.584602476198143</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.27152475884229</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.270362901196648</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.938636450631975</v>
+        <v>4.934188006798934</v>
       </c>
       <c r="C11">
-        <v>1.291599256398257</v>
+        <v>1.289757888078157</v>
       </c>
       <c r="D11">
-        <v>0.3807417769903196</v>
+        <v>0.3805763633823744</v>
       </c>
       <c r="E11">
-        <v>2.801762418207986</v>
+        <v>2.800315791274343</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.73475538452323</v>
+        <v>5.19703703524732</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.4398894215617</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.402491277936662</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.40104823751858</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.118196382826909</v>
+        <v>5.113364013331307</v>
       </c>
       <c r="C12">
-        <v>1.34150498356874</v>
+        <v>1.339517062763548</v>
       </c>
       <c r="D12">
-        <v>0.3935578245309159</v>
+        <v>0.3933773008782708</v>
       </c>
       <c r="E12">
-        <v>2.907799911026743</v>
+        <v>2.906205365270409</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.2448619053423</v>
+        <v>5.367175956560459</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.77609516291204</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.454412651035199</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.452848000185</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.079142276743539</v>
+        <v>5.074395091382485</v>
       </c>
       <c r="C13">
-        <v>1.330632672164768</v>
+        <v>1.328677226317865</v>
       </c>
       <c r="D13">
-        <v>0.3907754394522414</v>
+        <v>0.3905982779075288</v>
       </c>
       <c r="E13">
-        <v>2.884699340900625</v>
+        <v>2.883137900207942</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.13407350312389</v>
+        <v>5.330225525685478</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.70307755317742</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.443114915583109</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.441577237119319</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.95324038147038</v>
+        <v>4.948761442967964</v>
       </c>
       <c r="C14">
-        <v>1.29565035947968</v>
+        <v>1.293797332521876</v>
       </c>
       <c r="D14">
-        <v>0.3817863625642133</v>
+        <v>0.3816197528884828</v>
       </c>
       <c r="E14">
-        <v>2.810370338625489</v>
+        <v>2.808912084267902</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.77631322120214</v>
+        <v>5.210898727841254</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.46728053782073</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.406711996344526</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.405259292159954</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.877197568110944</v>
+        <v>4.872876024473385</v>
       </c>
       <c r="C15">
-        <v>1.274571300064792</v>
+        <v>1.272778483648551</v>
       </c>
       <c r="D15">
-        <v>0.3763428711729091</v>
+        <v>0.3761824270474392</v>
       </c>
       <c r="E15">
-        <v>2.765579781892598</v>
+        <v>2.764181313332898</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.55978529014243</v>
+        <v>5.138674176825589</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.32456370113363</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.38473880008597</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.383335983060221</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.456142290862033</v>
+        <v>4.452632075962413</v>
       </c>
       <c r="C16">
-        <v>1.158522117365095</v>
+        <v>1.157041260945533</v>
       </c>
       <c r="D16">
-        <v>0.346008656216199</v>
+        <v>0.3458796684133603</v>
       </c>
       <c r="E16">
-        <v>2.518902324009446</v>
+        <v>2.517802862453451</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.35474340427237</v>
+        <v>4.736667001177693</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.530241480209554</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.263254173778535</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.262108897846176</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.209288336158124</v>
+        <v>4.206208763265067</v>
       </c>
       <c r="C17">
-        <v>1.091001223511142</v>
+        <v>1.089687265461521</v>
       </c>
       <c r="D17">
-        <v>0.3280728058808222</v>
+        <v>0.3279602731740567</v>
       </c>
       <c r="E17">
-        <v>2.37526402770817</v>
+        <v>2.374316799070201</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.64340961912936</v>
+        <v>4.499319015479898</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.061313093736374</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.192172216366771</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.191163957837361</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.070930984889856</v>
+        <v>4.068078974988964</v>
       </c>
       <c r="C18">
-        <v>1.053320146191538</v>
+        <v>1.052094840047403</v>
       </c>
       <c r="D18">
-        <v>0.3179711251814581</v>
+        <v>0.3178672134311142</v>
       </c>
       <c r="E18">
-        <v>2.295052037063101</v>
+        <v>2.29418336014848</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.24313508955936</v>
+        <v>4.36574675694095</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.797431245162869</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.152376791662903</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.151441047490266</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.024660006825229</v>
+        <v>4.021881945719485</v>
       </c>
       <c r="C19">
-        <v>1.04074428012396</v>
+        <v>1.03954785933621</v>
       </c>
       <c r="D19">
-        <v>0.314584963835884</v>
+        <v>0.3144838419077729</v>
       </c>
       <c r="E19">
-        <v>2.268271990707916</v>
+        <v>2.267428551558936</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.10901509210044</v>
+        <v>4.320988409006674</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.709010737870329</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.139075066691959</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.138162905334639</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.235179144057497</v>
+        <v>4.232055900906062</v>
       </c>
       <c r="C20">
-        <v>1.098065426841657</v>
+        <v>1.096734494683687</v>
       </c>
       <c r="D20">
-        <v>0.3299592278923598</v>
+        <v>0.3298450347533475</v>
       </c>
       <c r="E20">
-        <v>2.390297123712514</v>
+        <v>2.389334669219764</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.71818612429877</v>
+        <v>4.524270922963325</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.110608820769158</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.199622685435031</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.198600520406202</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.989992017863813</v>
+        <v>4.985435770923971</v>
       </c>
       <c r="C21">
-        <v>1.305851301457437</v>
+        <v>1.303968732668039</v>
       </c>
       <c r="D21">
-        <v>0.384413374384053</v>
+        <v>0.3842437292813088</v>
       </c>
       <c r="E21">
-        <v>2.832045299826575</v>
+        <v>2.830557473680571</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.88084107135273</v>
+        <v>5.245763672640521</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.53617510794743</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.417335349752676</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.415858150039057</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.52983486136759</v>
+        <v>5.524045035920892</v>
       </c>
       <c r="C22">
-        <v>1.456714187386325</v>
+        <v>1.454362666473202</v>
       </c>
       <c r="D22">
-        <v>0.4227116681245349</v>
+        <v>0.4224930063438137</v>
       </c>
       <c r="E22">
-        <v>3.152617648865458</v>
+        <v>3.150640118559579</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.40722153122732</v>
+        <v>5.754797576995884</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.54210648988141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.573660722687137</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.571793251053677</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.236586659493582</v>
+        <v>5.231490214586358</v>
       </c>
       <c r="C23">
-        <v>1.374524899501665</v>
+        <v>1.372436444777065</v>
       </c>
       <c r="D23">
-        <v>0.401975123357559</v>
+        <v>0.4017841436130425</v>
       </c>
       <c r="E23">
-        <v>2.977958631270582</v>
+        <v>2.976260438064614</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.58017027488523</v>
+        <v>5.479003730769307</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.99708120096386</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.488677808120912</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.487029575566879</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.223462949822931</v>
+        <v>4.220359511301581</v>
       </c>
       <c r="C24">
-        <v>1.09486820249694</v>
+        <v>1.093544966689478</v>
       </c>
       <c r="D24">
-        <v>0.3291057304537048</v>
+        <v>0.3289922905636189</v>
       </c>
       <c r="E24">
-        <v>2.383493384732915</v>
+        <v>2.382537841218792</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.68435295353959</v>
+        <v>4.512981296101373</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.088304646762424</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.19625103518861</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.1952351764551</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.266395590995216</v>
+        <v>3.264683050717167</v>
       </c>
       <c r="C25">
-        <v>0.8364525541183241</v>
+        <v>0.8356779157596463</v>
       </c>
       <c r="D25">
-        <v>0.258531778173392</v>
+        <v>0.25847015259599</v>
       </c>
       <c r="E25">
-        <v>1.832351548403423</v>
+        <v>1.831855239378669</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.89245435329067</v>
+        <v>3.581111833056127</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.247626606145843</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9215866636023833</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9210156434776451</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,31 +409,37 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.630541123846569</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6673977349539655</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2107377459087587</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.470671048557946</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.951912467496641</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.005325307926029</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7398349455326994</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,31 +456,37 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.22898513982193</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5619018451311888</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1801099027761239</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.243207684648567</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.548517517006729</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.209176821570651</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6254001202198012</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +503,37 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.992674131466998</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.5001697723957648</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1619327107675446</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.109656267871884</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.309123672016113</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.736859082837043</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5581537819073716</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,31 +550,37 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.89850420051917</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4756363854925496</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1546561961845043</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.056477917842628</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.213277155011497</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.547794862905022</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5313746751142148</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,31 +597,37 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.882984199291968</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4715965523949421</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1534551223163163</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.047715302017579</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.197455182015176</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.516587180079114</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.526962218415477</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,31 +644,37 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.991396042616003</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4998365547940864</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1618340802846774</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.108934394248138</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.30782459044309</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4.734296394119696</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5577902631795411</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,31 +691,37 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.489663719647979</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6302973736349315</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2000290504051065</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.390779888069716</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.810854065692467</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5.726896406181197</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6996631951847334</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,31 +738,37 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.573339167707672</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9183817409408164</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2814303478602085</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.0087708137644</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.884151565859014</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>7.846120994244018</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.009421297503934</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,31 +785,37 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.481278738034462</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.16489546548641</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.347955589318488</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.534528718394313</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.764180634016384</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>9.584602476198143</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.270362901196648</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,31 +832,37 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.934188006798934</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.289757888078157</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3805763633823744</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.800315791274343</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.19703703524732</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>10.4398894215617</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.40104823751858</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,31 +879,37 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.113364013331307</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.339517062763548</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3933773008782708</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.906205365270409</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.367175956560459</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>10.77609516291204</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.452848000185</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,31 +926,37 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.074395091382485</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.328677226317865</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3905982779075288</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2.883137900207942</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.330225525685478</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>10.70307755317742</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.441577237119319</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,31 +973,37 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.948761442967964</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.293797332521876</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3816197528884828</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2.808912084267902</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.210898727841254</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>10.46728053782073</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.405259292159954</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,31 +1020,37 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.872876024473385</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.272778483648551</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3761824270474392</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.764181313332898</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.138674176825589</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>10.32456370113363</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.383335983060221</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,31 +1067,37 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.452632075962413</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.157041260945533</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3458796684133603</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.517802862453451</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.736667001177693</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>9.530241480209554</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.262108897846176</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,31 +1114,37 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.206208763265067</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.089687265461521</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3279602731740567</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.374316799070201</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.499319015479898</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>9.061313093736374</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.191163957837361</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,31 +1161,37 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.068078974988964</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.052094840047403</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3178672134311142</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.29418336014848</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.36574675694095</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8.797431245162869</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.151441047490266</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,31 +1208,37 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.021881945719485</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.03954785933621</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3144838419077729</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2.267428551558936</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.320988409006674</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>8.709010737870329</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.138162905334639</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,31 +1255,37 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.232055900906062</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.096734494683687</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3298450347533475</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.389334669219764</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.524270922963325</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9.110608820769158</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.198600520406202</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,31 +1302,37 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.985435770923971</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.303968732668039</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3842437292813088</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.830557473680571</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.245763672640521</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>10.53617510794743</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.415858150039057</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,31 +1349,37 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.524045035920892</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.454362666473202</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4224930063438137</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.150640118559579</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.754797576995884</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>11.54210648988141</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.571793251053677</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,31 +1396,37 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.231490214586358</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.372436444777065</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4017841436130425</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2.976260438064614</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.479003730769307</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>10.99708120096386</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.487029575566879</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,31 +1443,37 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.220359511301581</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.093544966689478</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3289922905636189</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2.382537841218792</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.512981296101373</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9.088304646762424</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.1952351764551</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,31 +1490,37 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.264683050717167</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.8356779157596463</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.25847015259599</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1.831855239378669</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.581111833056127</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>7.247626606145843</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9210156434776451</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.696180186257465</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0826678534798333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2911944926695185</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07086360567379302</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.828672901835233</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.173744307694477</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01937039937343865</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.382348357288237</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2994294053629432</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.006520508500259</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.512045894629296</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.07349264274208167</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2718220080577964</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.06830139744265296</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.758575536792435</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.149926067796443</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01957539361617933</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.216871146805943</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2751732434096681</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.045026291093166</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.400973386431815</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.06788388673013657</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2602982132637948</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.06680880299428793</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.718232922289815</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.136799505999036</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01970920342966931</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.11680466729419</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.260662980782044</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.070559301326</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.356166438069209</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.06560250015292723</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2556897240950633</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.06621990811208356</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.702431870381716</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.131809047927788</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01976572202040305</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.076374960070126</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2548395715984952</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.081424390910463</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.348752598606239</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.06522387639176941</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2549296148677627</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06612326538721902</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.699845600755637</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.131001549360718</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01977522688472755</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.069681593793348</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2538778252770584</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.083255900587687</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.400367313494684</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.06785310461351912</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2602357143998688</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06680078378190402</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.718017287175485</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.136730773353122</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01970995761053951</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.116258057184979</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.26058408983954</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.070703987750662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.632251188218163</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.07949781623007368</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2844342886319424</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.06996285188247242</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.803918934820928</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.165209704415332</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01943942835508539</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.3249488631281</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2909821907673091</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.01939553541574</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.104874371005792</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1026301155936125</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.3351116950917117</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07684827384500892</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.995697895959211</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.233818319942088</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.01897230398771832</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.748269060534966</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3539606795060024</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.934514537320354</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.466271823775912</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1199593563979704</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3747351376655672</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.08239255218349228</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.1537331017756</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.293333459794042</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.01866831714352735</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.07072850630928</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4027826561344767</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.882856931223813</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.634554835259109</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1279533790181233</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3933842977997983</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.08503694202549283</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.230066280616114</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.322713892534068</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01853869023876786</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.220614101785714</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4256697026041252</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.861956387729762</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.698910491145512</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1309999621168032</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4005455532768707</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08605741480870321</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.259676690918667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.334201464695525</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01849086407060518</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.277896205762801</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4344451128375511</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.854441376372279</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.685021079344267</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1303429029577359</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.398998675723135</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.08583676259125994</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.253267099620814</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.331710806061523</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01850110794904225</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.265535104598399</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.432550153312647</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.856041657786605</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.639836337776103</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1282036128247057</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3939714126975957</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.08512050495300016</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.232487823456097</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.323651547076622</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01853473018715412</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.225315851396402</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.426389417174704</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.861329957818668</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.61224375837287</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1268958742863902</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.390905286417933</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.08468431125469067</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.219853753557771</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.318763085017338</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0185554894627904</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.200750598639189</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4226302775132353</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.864622042063786</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.45535827159307</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1194394483743508</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3735297214103497</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.082222322039879</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.148839428707788</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.291462306941384</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01867696408804864</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.061002793015462</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4013014984618479</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.884277278643864</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.360157640137913</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1148959325674781</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3630367203286227</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.08074432428756495</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.106457136635555</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.275325513459336</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0187537129616242</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.976134522368028</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3883981510969221</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.897018356185569</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.305761381466311</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1122928292921443</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3570595662432083</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.07990562896206654</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.082493779732346</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.266259206079269</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.01879867078684327</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.927617300262398</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3810395481382614</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.90458960222756</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.287403585023128</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1114131160030212</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3550455165122202</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.07962357679176435</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.074449365003119</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.263225590445813</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01881403207666787</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.911239321334847</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3785585600593464</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.907194069499113</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.370254083693737</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1153785171407407</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3641476349346959</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.08090046823951624</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.110925518034037</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.277020826371682</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.01874545856986831</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.985137737006625</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3897651305397858</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.895636726575944</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.653090468016899</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1288314176225498</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.395445269060275</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08533035602684791</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.238571518312398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.326008671748326</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01852482016994905</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.237114468231397</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4281959338131145</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.859765592631405</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.841654331275663</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1377387438385256</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.4164834752672846</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.08833768041388623</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.326138377930278</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.360150308883846</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01838797749040655</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.404882490443583</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4539515414635957</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.838664662135542</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.740648664744924</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1329729610086616</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.4051982479240337</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.08672181527635558</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.278999743323169</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.34172307124112</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01846033408958281</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.315036340620708</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4401428717376064</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.849703009556663</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2.36568844084303</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1151603128041643</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3636452185492232</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0808298413305728</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.108904113115784</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.27625372058418</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.01874918778408663</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.981066532867459</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3891469339996547</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.896260596293217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.974781997404364</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.09632547010440362</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.3210151616752768</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.07490558907555567</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.941033501079602</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.213761417990554</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.01909183382412127</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.631961535988893</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3365138311411471</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.955683830277778</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.696180186257465</v>
+        <v>1.933140312091183</v>
       </c>
       <c r="C2">
-        <v>0.0826678534798333</v>
+        <v>0.03175961529329641</v>
       </c>
       <c r="D2">
-        <v>0.2911944926695185</v>
+        <v>0.5143914853724141</v>
       </c>
       <c r="E2">
-        <v>0.07086360567379302</v>
+        <v>0.1593507817317494</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.828672901835233</v>
+        <v>3.019918314578348</v>
       </c>
       <c r="H2">
-        <v>1.173744307694477</v>
+        <v>2.357406099311703</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01937039937343865</v>
+        <v>0.05351804162523344</v>
       </c>
       <c r="K2">
-        <v>1.382348357288237</v>
+        <v>1.25908030626556</v>
       </c>
       <c r="L2">
-        <v>0.2994294053629432</v>
+        <v>0.4885825854267409</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.006520508500259</v>
+        <v>3.752109414407087</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.512045894629296</v>
+        <v>1.896848963859497</v>
       </c>
       <c r="C3">
-        <v>0.07349264274208167</v>
+        <v>0.02892879181674601</v>
       </c>
       <c r="D3">
-        <v>0.2718220080577964</v>
+        <v>0.5122141626836054</v>
       </c>
       <c r="E3">
-        <v>0.06830139744265296</v>
+        <v>0.1594562759811087</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.758575536792435</v>
+        <v>3.014944477446008</v>
       </c>
       <c r="H3">
-        <v>1.149926067796443</v>
+        <v>2.36102523265572</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01957539361617933</v>
+        <v>0.05367818756345111</v>
       </c>
       <c r="K3">
-        <v>1.216871146805943</v>
+        <v>1.223330531728209</v>
       </c>
       <c r="L3">
-        <v>0.2751732434096681</v>
+        <v>0.4851973522642652</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.045026291093166</v>
+        <v>3.769650534517581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.400973386431815</v>
+        <v>1.875576776482006</v>
       </c>
       <c r="C4">
-        <v>0.06788388673013657</v>
+        <v>0.02717606729525102</v>
       </c>
       <c r="D4">
-        <v>0.2602982132637948</v>
+        <v>0.5110903268864746</v>
       </c>
       <c r="E4">
-        <v>0.06680880299428793</v>
+        <v>0.1595736432765982</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.718232922289815</v>
+        <v>3.01310038221277</v>
       </c>
       <c r="H4">
-        <v>1.136799505999036</v>
+        <v>2.364030361085838</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01970920342966931</v>
+        <v>0.05378294159167973</v>
       </c>
       <c r="K4">
-        <v>1.11680466729419</v>
+        <v>1.202087019899835</v>
       </c>
       <c r="L4">
-        <v>0.260662980782044</v>
+        <v>0.4833362672458605</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.070559301326</v>
+        <v>3.781276122356843</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356166438069209</v>
+        <v>1.867162717382854</v>
       </c>
       <c r="C5">
-        <v>0.06560250015292723</v>
+        <v>0.02645812176991313</v>
       </c>
       <c r="D5">
-        <v>0.2556897240950633</v>
+        <v>0.5106859997387971</v>
       </c>
       <c r="E5">
-        <v>0.06621990811208356</v>
+        <v>0.1596347200088672</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.702431870381716</v>
+        <v>3.012653077550894</v>
       </c>
       <c r="H5">
-        <v>1.131809047927788</v>
+        <v>2.365451983845631</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01976572202040305</v>
+        <v>0.05382724908814795</v>
       </c>
       <c r="K5">
-        <v>1.076374960070126</v>
+        <v>1.193608072869466</v>
       </c>
       <c r="L5">
-        <v>0.2548395715984952</v>
+        <v>0.4826326144821422</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.081424390910463</v>
+        <v>3.786228685145083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.348752598606239</v>
+        <v>1.865780952568571</v>
       </c>
       <c r="C6">
-        <v>0.06522387639176941</v>
+        <v>0.02633868341928292</v>
       </c>
       <c r="D6">
-        <v>0.2549296148677627</v>
+        <v>0.5106221036992054</v>
       </c>
       <c r="E6">
-        <v>0.06612326538721902</v>
+        <v>0.1596456626341496</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.699845600755637</v>
+        <v>3.012597173294367</v>
       </c>
       <c r="H6">
-        <v>1.131001549360718</v>
+        <v>2.365699945807762</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01977522688472755</v>
+        <v>0.05383470424065218</v>
       </c>
       <c r="K6">
-        <v>1.069681593793348</v>
+        <v>1.192210903679126</v>
       </c>
       <c r="L6">
-        <v>0.2538778252770584</v>
+        <v>0.4825190826580013</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.083255900587687</v>
+        <v>3.787064041786856</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.400367313494684</v>
+        <v>1.87546227049873</v>
       </c>
       <c r="C7">
-        <v>0.06785310461351912</v>
+        <v>0.02716639983257352</v>
       </c>
       <c r="D7">
-        <v>0.2602357143998688</v>
+        <v>0.5110846566853695</v>
       </c>
       <c r="E7">
-        <v>0.06680078378190402</v>
+        <v>0.1595744133040764</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.718017287175485</v>
+        <v>3.013093118169891</v>
       </c>
       <c r="H7">
-        <v>1.136730773353122</v>
+        <v>2.364048735750387</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01970995761053951</v>
+        <v>0.05378353257569213</v>
       </c>
       <c r="K7">
-        <v>1.116258057184979</v>
+        <v>1.201971949078995</v>
       </c>
       <c r="L7">
-        <v>0.26058408983954</v>
+        <v>0.4833265557427353</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.070703987750662</v>
+        <v>3.781342043701471</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.632251188218163</v>
+        <v>1.92041744228257</v>
       </c>
       <c r="C8">
-        <v>0.07949781623007368</v>
+        <v>0.03078655742161374</v>
       </c>
       <c r="D8">
-        <v>0.2844342886319424</v>
+        <v>0.513596567374961</v>
       </c>
       <c r="E8">
-        <v>0.06996285188247242</v>
+        <v>0.1593762542173423</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.803918934820928</v>
+        <v>3.017952189377638</v>
       </c>
       <c r="H8">
-        <v>1.165209704415332</v>
+        <v>2.358491543089173</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01943942835508539</v>
+        <v>0.05357192913812892</v>
       </c>
       <c r="K8">
-        <v>1.3249488631281</v>
+        <v>1.246607137584903</v>
       </c>
       <c r="L8">
-        <v>0.2909821907673091</v>
+        <v>0.4873702634958619</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.01939553541574</v>
+        <v>3.757980067228274</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.104874371005792</v>
+        <v>2.016587143999971</v>
       </c>
       <c r="C9">
-        <v>0.1026301155936125</v>
+        <v>0.03777149204270813</v>
       </c>
       <c r="D9">
-        <v>0.3351116950917117</v>
+        <v>0.5202105214063693</v>
       </c>
       <c r="E9">
-        <v>0.07684827384500892</v>
+        <v>0.15940405484697</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.995697895959211</v>
+        <v>3.037086638540188</v>
       </c>
       <c r="H9">
-        <v>1.233818319942088</v>
+        <v>2.353802504281788</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01897230398771832</v>
+        <v>0.05320776231324409</v>
       </c>
       <c r="K9">
-        <v>1.748269060534966</v>
+        <v>1.339744933273494</v>
       </c>
       <c r="L9">
-        <v>0.3539606795060024</v>
+        <v>0.497023258879878</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.934514537320354</v>
+        <v>3.718954648915442</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.466271823775912</v>
+        <v>2.092127973151207</v>
       </c>
       <c r="C10">
-        <v>0.1199593563979704</v>
+        <v>0.04283631120298992</v>
       </c>
       <c r="D10">
-        <v>0.3747351376655672</v>
+        <v>0.5260969777274482</v>
       </c>
       <c r="E10">
-        <v>0.08239255218349228</v>
+        <v>0.1596772707495973</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.1537331017756</v>
+        <v>3.057014742726238</v>
       </c>
       <c r="H10">
-        <v>1.293333459794042</v>
+        <v>2.354139590013716</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01866831714352735</v>
+        <v>0.05297091798024489</v>
       </c>
       <c r="K10">
-        <v>2.07072850630928</v>
+        <v>1.411599958241027</v>
       </c>
       <c r="L10">
-        <v>0.4027826561344767</v>
+        <v>0.5051644479355986</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.882856931223813</v>
+        <v>3.694422244015286</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.634554835259109</v>
+        <v>2.127555007406158</v>
       </c>
       <c r="C11">
-        <v>0.1279533790181233</v>
+        <v>0.04512646243307472</v>
       </c>
       <c r="D11">
-        <v>0.3933842977997983</v>
+        <v>0.5289976106311371</v>
       </c>
       <c r="E11">
-        <v>0.08503694202549283</v>
+        <v>0.1598562477299588</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.230066280616114</v>
+        <v>3.06735866001182</v>
       </c>
       <c r="H11">
-        <v>1.322713892534068</v>
+        <v>2.355113832050279</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01853869023876786</v>
+        <v>0.05286978625530647</v>
       </c>
       <c r="K11">
-        <v>2.220614101785714</v>
+        <v>1.445035073100911</v>
       </c>
       <c r="L11">
-        <v>0.4256697026041252</v>
+        <v>0.5090957072725928</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.861956387729762</v>
+        <v>3.684161198181954</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.698910491145512</v>
+        <v>2.141123034766679</v>
       </c>
       <c r="C12">
-        <v>0.1309999621168032</v>
+        <v>0.04599172725592382</v>
       </c>
       <c r="D12">
-        <v>0.4005455532768707</v>
+        <v>0.5301280030622593</v>
       </c>
       <c r="E12">
-        <v>0.08605741480870321</v>
+        <v>0.1599318661422551</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.259676690918667</v>
+        <v>3.071459675115392</v>
       </c>
       <c r="H12">
-        <v>1.334201464695525</v>
+        <v>2.355600735139575</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01849086407060518</v>
+        <v>0.05283243671135196</v>
       </c>
       <c r="K12">
-        <v>2.277896205762801</v>
+        <v>1.457803627174428</v>
       </c>
       <c r="L12">
-        <v>0.4344451128375511</v>
+        <v>0.5106170860882742</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.854441376372279</v>
+        <v>3.680404929764777</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.685021079344267</v>
+        <v>2.138194136036986</v>
       </c>
       <c r="C13">
-        <v>0.1303429029577359</v>
+        <v>0.0458054639852179</v>
       </c>
       <c r="D13">
-        <v>0.398998675723135</v>
+        <v>0.5298831312067875</v>
       </c>
       <c r="E13">
-        <v>0.08583676259125994</v>
+        <v>0.159915231838454</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.253267099620814</v>
+        <v>3.070568262348814</v>
       </c>
       <c r="H13">
-        <v>1.331710806061523</v>
+        <v>2.355490625712406</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01850110794904225</v>
+        <v>0.05284043855133724</v>
       </c>
       <c r="K13">
-        <v>2.265535104598399</v>
+        <v>1.455048916145046</v>
       </c>
       <c r="L13">
-        <v>0.432550153312647</v>
+        <v>0.5102879767082413</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.856041657786605</v>
+        <v>3.681208153928864</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.639836337776103</v>
+        <v>2.128668200974403</v>
       </c>
       <c r="C14">
-        <v>0.1282036128247057</v>
+        <v>0.04519768753063147</v>
       </c>
       <c r="D14">
-        <v>0.3939714126975957</v>
+        <v>0.529089967999667</v>
       </c>
       <c r="E14">
-        <v>0.08512050495300016</v>
+        <v>0.159862311819591</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.232487823456097</v>
+        <v>3.067692364528284</v>
       </c>
       <c r="H14">
-        <v>1.323651547076622</v>
+        <v>2.355151525753456</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01853473018715412</v>
+        <v>0.05286669453092863</v>
       </c>
       <c r="K14">
-        <v>2.225315851396402</v>
+        <v>1.446083398057084</v>
       </c>
       <c r="L14">
-        <v>0.426389417174704</v>
+        <v>0.509220217081193</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.861329957818668</v>
+        <v>3.683849574362043</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.61224375837287</v>
+        <v>2.122853152140181</v>
       </c>
       <c r="C15">
-        <v>0.1268958742863902</v>
+        <v>0.04482515171901014</v>
       </c>
       <c r="D15">
-        <v>0.390905286417933</v>
+        <v>0.5286082963368273</v>
       </c>
       <c r="E15">
-        <v>0.08468431125469067</v>
+        <v>0.1598309176559916</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.219853753557771</v>
+        <v>3.065954760550994</v>
       </c>
       <c r="H15">
-        <v>1.318763085017338</v>
+        <v>2.354959179669351</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0185554894627904</v>
+        <v>0.05288290027613307</v>
       </c>
       <c r="K15">
-        <v>2.200750598639189</v>
+        <v>1.440605741983461</v>
       </c>
       <c r="L15">
-        <v>0.4226302775132353</v>
+        <v>0.5085704397339725</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.864622042063786</v>
+        <v>3.685484371407455</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.45535827159307</v>
+        <v>2.089834100400026</v>
       </c>
       <c r="C16">
-        <v>0.1194394483743508</v>
+        <v>0.04268636786284219</v>
       </c>
       <c r="D16">
-        <v>0.3735297214103497</v>
+        <v>0.5259118937526068</v>
       </c>
       <c r="E16">
-        <v>0.082222322039879</v>
+        <v>0.1596666729134348</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.148839428707788</v>
+        <v>3.056364483082035</v>
       </c>
       <c r="H16">
-        <v>1.291462306941384</v>
+        <v>2.354092433915724</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01867696408804864</v>
+        <v>0.05297765987156833</v>
       </c>
       <c r="K16">
-        <v>2.061002793015462</v>
+        <v>1.409429931997067</v>
       </c>
       <c r="L16">
-        <v>0.4013014984618479</v>
+        <v>0.50491210949221</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.884277278643864</v>
+        <v>3.695110924382192</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.360157640137913</v>
+        <v>2.069850060731255</v>
       </c>
       <c r="C17">
-        <v>0.1148959325674781</v>
+        <v>0.04137076268398232</v>
       </c>
       <c r="D17">
-        <v>0.3630367203286227</v>
+        <v>0.5243147731072355</v>
       </c>
       <c r="E17">
-        <v>0.08074432428756495</v>
+        <v>0.1595799066963437</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.106457136635555</v>
+        <v>3.050808722440593</v>
       </c>
       <c r="H17">
-        <v>1.275325513459336</v>
+        <v>2.353770917792644</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0187537129616242</v>
+        <v>0.05303748216904935</v>
       </c>
       <c r="K17">
-        <v>1.976134522368028</v>
+        <v>1.390496032998726</v>
       </c>
       <c r="L17">
-        <v>0.3883981510969221</v>
+        <v>0.5027261422627305</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.897018356185569</v>
+        <v>3.701246801921755</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.305761381466311</v>
+        <v>2.058455854159718</v>
       </c>
       <c r="C18">
-        <v>0.1122928292921443</v>
+        <v>0.04061275513141993</v>
       </c>
       <c r="D18">
-        <v>0.3570595662432083</v>
+        <v>0.5234171312239226</v>
       </c>
       <c r="E18">
-        <v>0.07990562896206654</v>
+        <v>0.1595351499333688</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.082493779732346</v>
+        <v>3.047733527233447</v>
       </c>
       <c r="H18">
-        <v>1.266259206079269</v>
+        <v>2.353663260873475</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01879867078684327</v>
+        <v>0.05307251274892888</v>
       </c>
       <c r="K18">
-        <v>1.927617300262398</v>
+        <v>1.379676159709362</v>
       </c>
       <c r="L18">
-        <v>0.3810395481382614</v>
+        <v>0.5014902760652404</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.90458960222756</v>
+        <v>3.704860595149654</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.287403585023128</v>
+        <v>2.054615170413058</v>
       </c>
       <c r="C19">
-        <v>0.1114131160030212</v>
+        <v>0.04035588161688963</v>
       </c>
       <c r="D19">
-        <v>0.3550455165122202</v>
+        <v>0.523116810242783</v>
       </c>
       <c r="E19">
-        <v>0.07962357679176435</v>
+        <v>0.1595208810172295</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.074449365003119</v>
+        <v>3.046712981596755</v>
       </c>
       <c r="H19">
-        <v>1.263225590445813</v>
+        <v>2.353640083473863</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01881403207666787</v>
+        <v>0.05308448050747572</v>
       </c>
       <c r="K19">
-        <v>1.911239321334847</v>
+        <v>1.376024833118919</v>
       </c>
       <c r="L19">
-        <v>0.3785585600593464</v>
+        <v>0.5010755179353623</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.907194069499113</v>
+        <v>3.706098690080665</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.370254083693737</v>
+        <v>2.071967039682818</v>
       </c>
       <c r="C20">
-        <v>0.1153785171407407</v>
+        <v>0.04151094609605366</v>
       </c>
       <c r="D20">
-        <v>0.3641476349346959</v>
+        <v>0.5244826184514721</v>
       </c>
       <c r="E20">
-        <v>0.08090046823951624</v>
+        <v>0.1595886103696813</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.110925518034037</v>
+        <v>3.051387687735115</v>
       </c>
       <c r="H20">
-        <v>1.277020826371682</v>
+        <v>2.353797146986949</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01874545856986831</v>
+        <v>0.0530310495965427</v>
       </c>
       <c r="K20">
-        <v>1.985137737006625</v>
+        <v>1.392504293327278</v>
       </c>
       <c r="L20">
-        <v>0.3897651305397858</v>
+        <v>0.5029566232365283</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.895636726575944</v>
+        <v>3.700584870824599</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.653090468016899</v>
+        <v>2.13146206043092</v>
       </c>
       <c r="C21">
-        <v>0.1288314176225498</v>
+        <v>0.04537625933808442</v>
       </c>
       <c r="D21">
-        <v>0.395445269060275</v>
+        <v>0.5293220716550309</v>
       </c>
       <c r="E21">
-        <v>0.08533035602684791</v>
+        <v>0.1598776429988575</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.238571518312398</v>
+        <v>3.068532090565753</v>
       </c>
       <c r="H21">
-        <v>1.326008671748326</v>
+        <v>2.355247926225587</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01852482016994905</v>
+        <v>0.05285895684492559</v>
       </c>
       <c r="K21">
-        <v>2.237114468231397</v>
+        <v>1.448713874333151</v>
       </c>
       <c r="L21">
-        <v>0.4281959338131145</v>
+        <v>0.50953295707194</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.859765592631405</v>
+        <v>3.683070213263065</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.841654331275663</v>
+        <v>2.171234705098129</v>
       </c>
       <c r="C22">
-        <v>0.1377387438385256</v>
+        <v>0.04789101992405165</v>
       </c>
       <c r="D22">
-        <v>0.4164834752672846</v>
+        <v>0.5326713438605566</v>
       </c>
       <c r="E22">
-        <v>0.08833768041388623</v>
+        <v>0.1601122523081919</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.326138377930278</v>
+        <v>3.080809503551649</v>
       </c>
       <c r="H22">
-        <v>1.360150308883846</v>
+        <v>2.356883737103885</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01838797749040655</v>
+        <v>0.05275200154545256</v>
       </c>
       <c r="K22">
-        <v>2.404882490443583</v>
+        <v>1.486076040169849</v>
       </c>
       <c r="L22">
-        <v>0.4539515414635957</v>
+        <v>0.5140215230470062</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.838664662135542</v>
+        <v>3.672377476360651</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.740648664744924</v>
+        <v>2.149926030466418</v>
       </c>
       <c r="C23">
-        <v>0.1329729610086616</v>
+        <v>0.04654988301487606</v>
       </c>
       <c r="D23">
-        <v>0.4051982479240337</v>
+        <v>0.5308667374704044</v>
       </c>
       <c r="E23">
-        <v>0.08672181527635558</v>
+        <v>0.1599828612007386</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.278999743323169</v>
+        <v>3.074158627957161</v>
       </c>
       <c r="H23">
-        <v>1.34172307124112</v>
+        <v>2.355947775432043</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01846033408958281</v>
+        <v>0.05280858197244953</v>
       </c>
       <c r="K23">
-        <v>2.315036340620708</v>
+        <v>1.466077921048878</v>
       </c>
       <c r="L23">
-        <v>0.4401428717376064</v>
+        <v>0.5116084749166561</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.849703009556663</v>
+        <v>3.678015352897418</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.36568844084303</v>
+        <v>2.071009657917443</v>
       </c>
       <c r="C24">
-        <v>0.1151603128041643</v>
+        <v>0.04144757431423329</v>
       </c>
       <c r="D24">
-        <v>0.3636452185492232</v>
+        <v>0.5244066715134323</v>
       </c>
       <c r="E24">
-        <v>0.0808298413305728</v>
+        <v>0.1595846594697825</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.108904113115784</v>
+        <v>3.051125567199222</v>
       </c>
       <c r="H24">
-        <v>1.27625372058418</v>
+        <v>2.353785048311124</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01874918778408663</v>
+        <v>0.05303395577540293</v>
       </c>
       <c r="K24">
-        <v>1.981066532867459</v>
+        <v>1.391596154864288</v>
       </c>
       <c r="L24">
-        <v>0.3891469339996547</v>
+        <v>0.5028523577597781</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.896260596293217</v>
+        <v>3.700883861358477</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.974781997404364</v>
+        <v>1.989712878837025</v>
       </c>
       <c r="C25">
-        <v>0.09632547010440362</v>
+        <v>0.03589383832527915</v>
       </c>
       <c r="D25">
-        <v>0.3210151616752768</v>
+        <v>0.5182407515332983</v>
       </c>
       <c r="E25">
-        <v>0.07490558907555567</v>
+        <v>0.1593520662263828</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.941033501079602</v>
+        <v>3.030880461574441</v>
       </c>
       <c r="H25">
-        <v>1.213761417990554</v>
+        <v>2.354406644242346</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01909183382412127</v>
+        <v>0.05330086816735591</v>
       </c>
       <c r="K25">
-        <v>1.631961535988893</v>
+        <v>1.313947504762012</v>
       </c>
       <c r="L25">
-        <v>0.3365138311411471</v>
+        <v>0.4942275297567278</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.955683830277778</v>
+        <v>3.72878525569493</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.933140312091183</v>
+        <v>1.696180186257521</v>
       </c>
       <c r="C2">
-        <v>0.03175961529329641</v>
+        <v>0.08266785348005357</v>
       </c>
       <c r="D2">
-        <v>0.5143914853724141</v>
+        <v>0.2911944926694332</v>
       </c>
       <c r="E2">
-        <v>0.1593507817317494</v>
+        <v>0.07086360567381078</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.019918314578348</v>
+        <v>1.828672901835233</v>
       </c>
       <c r="H2">
-        <v>2.357406099311703</v>
+        <v>1.173744307694477</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05351804162523344</v>
+        <v>0.0193703993734351</v>
       </c>
       <c r="K2">
-        <v>1.25908030626556</v>
+        <v>1.382348357288294</v>
       </c>
       <c r="L2">
-        <v>0.4885825854267409</v>
+        <v>0.2994294053630284</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.752109414407087</v>
+        <v>2.006520508500216</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.896848963859497</v>
+        <v>1.512045894629239</v>
       </c>
       <c r="C3">
-        <v>0.02892879181674601</v>
+        <v>0.07349264274177614</v>
       </c>
       <c r="D3">
-        <v>0.5122141626836054</v>
+        <v>0.2718220080578249</v>
       </c>
       <c r="E3">
-        <v>0.1594562759811087</v>
+        <v>0.06830139744265473</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.014944477446008</v>
+        <v>1.758575536792407</v>
       </c>
       <c r="H3">
-        <v>2.36102523265572</v>
+        <v>1.149926067796443</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05367818756345111</v>
+        <v>0.01957539361627703</v>
       </c>
       <c r="K3">
-        <v>1.223330531728209</v>
+        <v>1.216871146805886</v>
       </c>
       <c r="L3">
-        <v>0.4851973522642652</v>
+        <v>0.2751732434096823</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.769650534517581</v>
+        <v>2.045026291093166</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.875576776482006</v>
+        <v>1.400973386431815</v>
       </c>
       <c r="C4">
-        <v>0.02717606729525102</v>
+        <v>0.06788388673028578</v>
       </c>
       <c r="D4">
-        <v>0.5110903268864746</v>
+        <v>0.26029821326388</v>
       </c>
       <c r="E4">
-        <v>0.1595736432765982</v>
+        <v>0.06680880299428082</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.01310038221277</v>
+        <v>1.718232922289801</v>
       </c>
       <c r="H4">
-        <v>2.364030361085838</v>
+        <v>1.136799505999093</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05378294159167973</v>
+        <v>0.01970920342965155</v>
       </c>
       <c r="K4">
-        <v>1.202087019899835</v>
+        <v>1.116804667294161</v>
       </c>
       <c r="L4">
-        <v>0.4833362672458605</v>
+        <v>0.2606629807820298</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.781276122356843</v>
+        <v>2.070559301326071</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.867162717382854</v>
+        <v>1.356166438069209</v>
       </c>
       <c r="C5">
-        <v>0.02645812176991313</v>
+        <v>0.06560250015280644</v>
       </c>
       <c r="D5">
-        <v>0.5106859997387971</v>
+        <v>0.2556897240952907</v>
       </c>
       <c r="E5">
-        <v>0.1596347200088672</v>
+        <v>0.06621990811208889</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.012653077550894</v>
+        <v>1.702431870381716</v>
       </c>
       <c r="H5">
-        <v>2.365451983845631</v>
+        <v>1.131809047927788</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05382724908814795</v>
+        <v>0.01976572202047233</v>
       </c>
       <c r="K5">
-        <v>1.193608072869466</v>
+        <v>1.076374960070098</v>
       </c>
       <c r="L5">
-        <v>0.4826326144821422</v>
+        <v>0.2548395715984384</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.786228685145083</v>
+        <v>2.081424390910406</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.865780952568571</v>
+        <v>1.348752598606325</v>
       </c>
       <c r="C6">
-        <v>0.02633868341928292</v>
+        <v>0.06522387639169125</v>
       </c>
       <c r="D6">
-        <v>0.5106221036992054</v>
+        <v>0.2549296148677627</v>
       </c>
       <c r="E6">
-        <v>0.1596456626341496</v>
+        <v>0.06612326538723678</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.012597173294367</v>
+        <v>1.699845600755665</v>
       </c>
       <c r="H6">
-        <v>2.365699945807762</v>
+        <v>1.131001549360718</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05383470424065218</v>
+        <v>0.01977522688473243</v>
       </c>
       <c r="K6">
-        <v>1.192210903679126</v>
+        <v>1.069681593793348</v>
       </c>
       <c r="L6">
-        <v>0.4825190826580013</v>
+        <v>0.2538778252771436</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.787064041786856</v>
+        <v>2.083255900587751</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.87546227049873</v>
+        <v>1.400367313494797</v>
       </c>
       <c r="C7">
-        <v>0.02716639983257352</v>
+        <v>0.06785310461351202</v>
       </c>
       <c r="D7">
-        <v>0.5110846566853695</v>
+        <v>0.2602357143996272</v>
       </c>
       <c r="E7">
-        <v>0.1595744133040764</v>
+        <v>0.06680078378192711</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.013093118169891</v>
+        <v>1.718017287175442</v>
       </c>
       <c r="H7">
-        <v>2.364048735750387</v>
+        <v>1.136730773353094</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05378353257569213</v>
+        <v>0.01970995761055372</v>
       </c>
       <c r="K7">
-        <v>1.201971949078995</v>
+        <v>1.116258057185092</v>
       </c>
       <c r="L7">
-        <v>0.4833265557427353</v>
+        <v>0.2605840898394689</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.781342043701471</v>
+        <v>2.070703987750619</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.92041744228257</v>
+        <v>1.632251188218135</v>
       </c>
       <c r="C8">
-        <v>0.03078655742161374</v>
+        <v>0.07949781623006658</v>
       </c>
       <c r="D8">
-        <v>0.513596567374961</v>
+        <v>0.2844342886318998</v>
       </c>
       <c r="E8">
-        <v>0.1593762542173423</v>
+        <v>0.0699628518824511</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.017952189377638</v>
+        <v>1.803918934820956</v>
       </c>
       <c r="H8">
-        <v>2.358491543089173</v>
+        <v>1.165209704415219</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05357192913812892</v>
+        <v>0.01943942835501433</v>
       </c>
       <c r="K8">
-        <v>1.246607137584903</v>
+        <v>1.324948863128185</v>
       </c>
       <c r="L8">
-        <v>0.4873702634958619</v>
+        <v>0.2909821907673802</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.757980067228274</v>
+        <v>2.019395535415711</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.016587143999971</v>
+        <v>2.104874371005792</v>
       </c>
       <c r="C9">
-        <v>0.03777149204270813</v>
+        <v>0.1026301155936267</v>
       </c>
       <c r="D9">
-        <v>0.5202105214063693</v>
+        <v>0.3351116950915838</v>
       </c>
       <c r="E9">
-        <v>0.15940405484697</v>
+        <v>0.07684827384500892</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.037086638540188</v>
+        <v>1.995697895959296</v>
       </c>
       <c r="H9">
-        <v>2.353802504281788</v>
+        <v>1.233818319942088</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05320776231324409</v>
+        <v>0.01897230398771566</v>
       </c>
       <c r="K9">
-        <v>1.339744933273494</v>
+        <v>1.748269060534938</v>
       </c>
       <c r="L9">
-        <v>0.497023258879878</v>
+        <v>0.353960679506045</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.718954648915442</v>
+        <v>1.934514537320396</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.092127973151207</v>
+        <v>2.466271823775855</v>
       </c>
       <c r="C10">
-        <v>0.04283631120298992</v>
+        <v>0.1199593563980841</v>
       </c>
       <c r="D10">
-        <v>0.5260969777274482</v>
+        <v>0.3747351376657804</v>
       </c>
       <c r="E10">
-        <v>0.1596772707495973</v>
+        <v>0.08239255218348163</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.057014742726238</v>
+        <v>2.153733101775629</v>
       </c>
       <c r="H10">
-        <v>2.354139590013716</v>
+        <v>1.293333459794042</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05297091798024489</v>
+        <v>0.01866831714348649</v>
       </c>
       <c r="K10">
-        <v>1.411599958241027</v>
+        <v>2.07072850630928</v>
       </c>
       <c r="L10">
-        <v>0.5051644479355986</v>
+        <v>0.4027826561345478</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.694422244015286</v>
+        <v>1.882856931223813</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.127555007406158</v>
+        <v>2.634554835259337</v>
       </c>
       <c r="C11">
-        <v>0.04512646243307472</v>
+        <v>0.1279533790181091</v>
       </c>
       <c r="D11">
-        <v>0.5289976106311371</v>
+        <v>0.3933842978001678</v>
       </c>
       <c r="E11">
-        <v>0.1598562477299588</v>
+        <v>0.0850369420255177</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.06735866001182</v>
+        <v>2.230066280616171</v>
       </c>
       <c r="H11">
-        <v>2.355113832050279</v>
+        <v>1.322713892533926</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05286978625530647</v>
+        <v>0.01853869023886023</v>
       </c>
       <c r="K11">
-        <v>1.445035073100911</v>
+        <v>2.22061410178577</v>
       </c>
       <c r="L11">
-        <v>0.5090957072725928</v>
+        <v>0.4256697026041536</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.684161198181954</v>
+        <v>1.861956387729734</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.141123034766679</v>
+        <v>2.698910491145455</v>
       </c>
       <c r="C12">
-        <v>0.04599172725592382</v>
+        <v>0.13099996211659</v>
       </c>
       <c r="D12">
-        <v>0.5301280030622593</v>
+        <v>0.4005455532768138</v>
       </c>
       <c r="E12">
-        <v>0.1599318661422551</v>
+        <v>0.08605741480869966</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.071459675115392</v>
+        <v>2.259676690918639</v>
       </c>
       <c r="H12">
-        <v>2.355600735139575</v>
+        <v>1.334201464695639</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05283243671135196</v>
+        <v>0.01849086407048883</v>
       </c>
       <c r="K12">
-        <v>1.457803627174428</v>
+        <v>2.277896205762829</v>
       </c>
       <c r="L12">
-        <v>0.5106170860882742</v>
+        <v>0.4344451128375511</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.680404929764777</v>
+        <v>1.854441376372279</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.138194136036986</v>
+        <v>2.685021079344381</v>
       </c>
       <c r="C13">
-        <v>0.0458054639852179</v>
+        <v>0.1303429029579348</v>
       </c>
       <c r="D13">
-        <v>0.5298831312067875</v>
+        <v>0.3989986757230639</v>
       </c>
       <c r="E13">
-        <v>0.159915231838454</v>
+        <v>0.08583676259124218</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.070568262348814</v>
+        <v>2.253267099620757</v>
       </c>
       <c r="H13">
-        <v>2.355490625712406</v>
+        <v>1.331710806061636</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05284043855133724</v>
+        <v>0.01850110794897475</v>
       </c>
       <c r="K13">
-        <v>1.455048916145046</v>
+        <v>2.265535104598513</v>
       </c>
       <c r="L13">
-        <v>0.5102879767082413</v>
+        <v>0.4325501533126328</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.681208153928864</v>
+        <v>1.856041657786605</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.128668200974403</v>
+        <v>2.639836337776103</v>
       </c>
       <c r="C14">
-        <v>0.04519768753063147</v>
+        <v>0.1282036128246915</v>
       </c>
       <c r="D14">
-        <v>0.529089967999667</v>
+        <v>0.3939714126977236</v>
       </c>
       <c r="E14">
-        <v>0.159862311819591</v>
+        <v>0.08512050495300372</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.067692364528284</v>
+        <v>2.23248782345604</v>
       </c>
       <c r="H14">
-        <v>2.355151525753456</v>
+        <v>1.323651547076508</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05286669453092863</v>
+        <v>0.01853473018727048</v>
       </c>
       <c r="K14">
-        <v>1.446083398057084</v>
+        <v>2.225315851396374</v>
       </c>
       <c r="L14">
-        <v>0.509220217081193</v>
+        <v>0.4263894171746756</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.683849574362043</v>
+        <v>1.861329957818711</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.122853152140181</v>
+        <v>2.612243758372699</v>
       </c>
       <c r="C15">
-        <v>0.04482515171901014</v>
+        <v>0.1268958742863475</v>
       </c>
       <c r="D15">
-        <v>0.5286082963368273</v>
+        <v>0.3909052864180467</v>
       </c>
       <c r="E15">
-        <v>0.1598309176559916</v>
+        <v>0.08468431125471554</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.065954760550994</v>
+        <v>2.2198537535578</v>
       </c>
       <c r="H15">
-        <v>2.354959179669351</v>
+        <v>1.318763085017252</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05288290027613307</v>
+        <v>0.01855548946274155</v>
       </c>
       <c r="K15">
-        <v>1.440605741983461</v>
+        <v>2.200750598639246</v>
       </c>
       <c r="L15">
-        <v>0.5085704397339725</v>
+        <v>0.4226302775131927</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.685484371407455</v>
+        <v>1.864622042063786</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.089834100400026</v>
+        <v>2.455358271593013</v>
       </c>
       <c r="C16">
-        <v>0.04268636786284219</v>
+        <v>0.1194394483743508</v>
       </c>
       <c r="D16">
-        <v>0.5259118937526068</v>
+        <v>0.3735297214102502</v>
       </c>
       <c r="E16">
-        <v>0.1596666729134348</v>
+        <v>0.08222232203992874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.056364483082035</v>
+        <v>2.148839428707703</v>
       </c>
       <c r="H16">
-        <v>2.354092433915724</v>
+        <v>1.291462306941355</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05297765987156833</v>
+        <v>0.01867696408798913</v>
       </c>
       <c r="K16">
-        <v>1.409429931997067</v>
+        <v>2.06100279301549</v>
       </c>
       <c r="L16">
-        <v>0.50491210949221</v>
+        <v>0.4013014984617911</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.695110924382192</v>
+        <v>1.884277278643822</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.069850060731255</v>
+        <v>2.360157640137913</v>
       </c>
       <c r="C17">
-        <v>0.04137076268398232</v>
+        <v>0.1148959325675349</v>
       </c>
       <c r="D17">
-        <v>0.5243147731072355</v>
+        <v>0.3630367203286511</v>
       </c>
       <c r="E17">
-        <v>0.1595799066963437</v>
+        <v>0.08074432428755784</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.050808722440593</v>
+        <v>2.10645713663547</v>
       </c>
       <c r="H17">
-        <v>2.353770917792644</v>
+        <v>1.275325513459222</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05303748216904935</v>
+        <v>0.01875371296162065</v>
       </c>
       <c r="K17">
-        <v>1.390496032998726</v>
+        <v>1.976134522368028</v>
       </c>
       <c r="L17">
-        <v>0.5027261422627305</v>
+        <v>0.3883981510969789</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.701246801921755</v>
+        <v>1.897018356185569</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.058455854159718</v>
+        <v>2.305761381466198</v>
       </c>
       <c r="C18">
-        <v>0.04061275513141993</v>
+        <v>0.1122928292922865</v>
       </c>
       <c r="D18">
-        <v>0.5234171312239226</v>
+        <v>0.3570595662433362</v>
       </c>
       <c r="E18">
-        <v>0.1595351499333688</v>
+        <v>0.07990562896204167</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.047733527233447</v>
+        <v>2.082493779732403</v>
       </c>
       <c r="H18">
-        <v>2.353663260873475</v>
+        <v>1.266259206079042</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05307251274892888</v>
+        <v>0.01879867078680153</v>
       </c>
       <c r="K18">
-        <v>1.379676159709362</v>
+        <v>1.927617300262426</v>
       </c>
       <c r="L18">
-        <v>0.5014902760652404</v>
+        <v>0.3810395481383324</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.704860595149654</v>
+        <v>1.904589602227503</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.054615170413058</v>
+        <v>2.287403585022957</v>
       </c>
       <c r="C19">
-        <v>0.04035588161688963</v>
+        <v>0.1114131160028222</v>
       </c>
       <c r="D19">
-        <v>0.523116810242783</v>
+        <v>0.3550455165121917</v>
       </c>
       <c r="E19">
-        <v>0.1595208810172295</v>
+        <v>0.07962357679179632</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.046712981596755</v>
+        <v>2.074449365003204</v>
       </c>
       <c r="H19">
-        <v>2.353640083473863</v>
+        <v>1.263225590445813</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05308448050747572</v>
+        <v>0.01881403207666787</v>
       </c>
       <c r="K19">
-        <v>1.376024833118919</v>
+        <v>1.911239321334904</v>
       </c>
       <c r="L19">
-        <v>0.5010755179353623</v>
+        <v>0.3785585600592896</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.706098690080665</v>
+        <v>1.907194069499198</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.071967039682818</v>
+        <v>2.370254083693851</v>
       </c>
       <c r="C20">
-        <v>0.04151094609605366</v>
+        <v>0.115378517140428</v>
       </c>
       <c r="D20">
-        <v>0.5244826184514721</v>
+        <v>0.3641476349347954</v>
       </c>
       <c r="E20">
-        <v>0.1595886103696813</v>
+        <v>0.0809004682395269</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.051387687735115</v>
+        <v>2.110925518034065</v>
       </c>
       <c r="H20">
-        <v>2.353797146986949</v>
+        <v>1.277020826371853</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0530310495965427</v>
+        <v>0.01874545856974397</v>
       </c>
       <c r="K20">
-        <v>1.392504293327278</v>
+        <v>1.985137737006568</v>
       </c>
       <c r="L20">
-        <v>0.5029566232365283</v>
+        <v>0.3897651305397432</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.700584870824599</v>
+        <v>1.895636726575944</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.13146206043092</v>
+        <v>2.653090468016785</v>
       </c>
       <c r="C21">
-        <v>0.04537625933808442</v>
+        <v>0.128831417622564</v>
       </c>
       <c r="D21">
-        <v>0.5293220716550309</v>
+        <v>0.3954452690600903</v>
       </c>
       <c r="E21">
-        <v>0.1598776429988575</v>
+        <v>0.08533035602680172</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.068532090565753</v>
+        <v>2.238571518312284</v>
       </c>
       <c r="H21">
-        <v>2.355247926225587</v>
+        <v>1.326008671748298</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05285895684492559</v>
+        <v>0.0185248201699153</v>
       </c>
       <c r="K21">
-        <v>1.448713874333151</v>
+        <v>2.237114468231368</v>
       </c>
       <c r="L21">
-        <v>0.50953295707194</v>
+        <v>0.428195933813214</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.683070213263065</v>
+        <v>1.859765592631433</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.171234705098129</v>
+        <v>2.841654331275606</v>
       </c>
       <c r="C22">
-        <v>0.04789101992405165</v>
+        <v>0.1377387438387672</v>
       </c>
       <c r="D22">
-        <v>0.5326713438605566</v>
+        <v>0.4164834752672562</v>
       </c>
       <c r="E22">
-        <v>0.1601122523081919</v>
+        <v>0.08833768041388623</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.080809503551649</v>
+        <v>2.326138377930306</v>
       </c>
       <c r="H22">
-        <v>2.356883737103885</v>
+        <v>1.360150308883902</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05275200154545256</v>
+        <v>0.01838797749042254</v>
       </c>
       <c r="K22">
-        <v>1.486076040169849</v>
+        <v>2.404882490443555</v>
       </c>
       <c r="L22">
-        <v>0.5140215230470062</v>
+        <v>0.453951541463482</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.672377476360651</v>
+        <v>1.838664662135542</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.149926030466418</v>
+        <v>2.740648664744867</v>
       </c>
       <c r="C23">
-        <v>0.04654988301487606</v>
+        <v>0.1329729610086758</v>
       </c>
       <c r="D23">
-        <v>0.5308667374704044</v>
+        <v>0.4051982479238063</v>
       </c>
       <c r="E23">
-        <v>0.1599828612007386</v>
+        <v>0.08672181527628098</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.074158627957161</v>
+        <v>2.278999743323169</v>
       </c>
       <c r="H23">
-        <v>2.355947775432043</v>
+        <v>1.341723071241233</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05280858197244953</v>
+        <v>0.01846033408973646</v>
       </c>
       <c r="K23">
-        <v>1.466077921048878</v>
+        <v>2.315036340620679</v>
       </c>
       <c r="L23">
-        <v>0.5116084749166561</v>
+        <v>0.4401428717376064</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.678015352897418</v>
+        <v>1.849703009556691</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.071009657917443</v>
+        <v>2.365688440843201</v>
       </c>
       <c r="C24">
-        <v>0.04144757431423329</v>
+        <v>0.1151603128042353</v>
       </c>
       <c r="D24">
-        <v>0.5244066715134323</v>
+        <v>0.3636452185493653</v>
       </c>
       <c r="E24">
-        <v>0.1595846594697825</v>
+        <v>0.0808298413305728</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.051125567199222</v>
+        <v>2.108904113115756</v>
       </c>
       <c r="H24">
-        <v>2.353785048311124</v>
+        <v>1.27625372058418</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05303395577540293</v>
+        <v>0.01874918778416035</v>
       </c>
       <c r="K24">
-        <v>1.391596154864288</v>
+        <v>1.981066532867459</v>
       </c>
       <c r="L24">
-        <v>0.5028523577597781</v>
+        <v>0.3891469339995695</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.700883861358477</v>
+        <v>1.896260596293246</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.989712878837025</v>
+        <v>1.974781997404364</v>
       </c>
       <c r="C25">
-        <v>0.03589383832527915</v>
+        <v>0.09632547010433257</v>
       </c>
       <c r="D25">
-        <v>0.5182407515332983</v>
+        <v>0.3210151616752768</v>
       </c>
       <c r="E25">
-        <v>0.1593520662263828</v>
+        <v>0.07490558907553435</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.030880461574441</v>
+        <v>1.941033501079716</v>
       </c>
       <c r="H25">
-        <v>2.354406644242346</v>
+        <v>1.213761417990668</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05330086816735591</v>
+        <v>0.01909183382415236</v>
       </c>
       <c r="K25">
-        <v>1.313947504762012</v>
+        <v>1.631961535988921</v>
       </c>
       <c r="L25">
-        <v>0.4942275297567278</v>
+        <v>0.336513831141076</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.72878525569493</v>
+        <v>1.955683830277891</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.696180186257521</v>
+        <v>2.367665717281454</v>
       </c>
       <c r="C2">
-        <v>0.08266785348005357</v>
+        <v>0.8873263318847364</v>
       </c>
       <c r="D2">
-        <v>0.2911944926694332</v>
+        <v>0.37396014307879</v>
       </c>
       <c r="E2">
-        <v>0.07086360567381078</v>
+        <v>0.119493800418109</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.828672901835233</v>
+        <v>1.746537401028377</v>
       </c>
       <c r="H2">
-        <v>1.173744307694477</v>
+        <v>0.004481363122680104</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002069263502983532</v>
       </c>
       <c r="J2">
-        <v>0.0193703993734351</v>
+        <v>1.054421953392023</v>
       </c>
       <c r="K2">
-        <v>1.382348357288294</v>
+        <v>0.8888931437264276</v>
       </c>
       <c r="L2">
-        <v>0.2994294053630284</v>
+        <v>0.04574642323999711</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.006520508500216</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8215866200628881</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.512045894629239</v>
+        <v>2.059726238990777</v>
       </c>
       <c r="C3">
-        <v>0.07349264274177614</v>
+        <v>0.7701442853438607</v>
       </c>
       <c r="D3">
-        <v>0.2718220080578249</v>
+        <v>0.3396926288056221</v>
       </c>
       <c r="E3">
-        <v>0.06830139744265473</v>
+        <v>0.1076019773947223</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.758575536792407</v>
+        <v>1.59373405008705</v>
       </c>
       <c r="H3">
-        <v>1.149926067796443</v>
+        <v>0.007740849033019193</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00404967299391501</v>
       </c>
       <c r="J3">
-        <v>0.01957539361627703</v>
+        <v>0.9865291192764403</v>
       </c>
       <c r="K3">
-        <v>1.216871146805886</v>
+        <v>0.8380203552123291</v>
       </c>
       <c r="L3">
-        <v>0.2751732434096823</v>
+        <v>0.03967711971998256</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.045026291093166</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7171923612477187</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.400973386431815</v>
+        <v>1.870860469452424</v>
       </c>
       <c r="C4">
-        <v>0.06788388673028578</v>
+        <v>0.6990204335475596</v>
       </c>
       <c r="D4">
-        <v>0.26029821326388</v>
+        <v>0.3187849067453925</v>
       </c>
       <c r="E4">
-        <v>0.06680880299428082</v>
+        <v>0.1003133654922976</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.718232922289801</v>
+        <v>1.500407475356752</v>
       </c>
       <c r="H4">
-        <v>1.136799505999093</v>
+        <v>0.01026253266998128</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005738516869673749</v>
       </c>
       <c r="J4">
-        <v>0.01970920342965155</v>
+        <v>0.9451633730355979</v>
       </c>
       <c r="K4">
-        <v>1.116804667294161</v>
+        <v>0.806839019022128</v>
       </c>
       <c r="L4">
-        <v>0.2606629807820298</v>
+        <v>0.03602763958238597</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.070559301326071</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6533517097858379</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.356166438069209</v>
+        <v>1.793804003001526</v>
       </c>
       <c r="C5">
-        <v>0.06560250015280644</v>
+        <v>0.6711995004659457</v>
       </c>
       <c r="D5">
-        <v>0.2556897240952907</v>
+        <v>0.3102586634419566</v>
       </c>
       <c r="E5">
-        <v>0.06621990811208889</v>
+        <v>0.09732080550133659</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.702431870381716</v>
+        <v>1.459604212644706</v>
       </c>
       <c r="H5">
-        <v>1.131809047927788</v>
+        <v>0.0114201016357518</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006621233987036845</v>
       </c>
       <c r="J5">
-        <v>0.01976572202047233</v>
+        <v>0.9269151208193023</v>
       </c>
       <c r="K5">
-        <v>1.076374960070098</v>
+        <v>0.7923620758275192</v>
       </c>
       <c r="L5">
-        <v>0.2548395715984384</v>
+        <v>0.03453977469004244</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.081424390910406</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.627560456357493</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.348752598606325</v>
+        <v>1.780863462297901</v>
       </c>
       <c r="C6">
-        <v>0.06522387639169125</v>
+        <v>0.6677878612737231</v>
       </c>
       <c r="D6">
-        <v>0.2549296148677627</v>
+        <v>0.3088023809071672</v>
       </c>
       <c r="E6">
-        <v>0.06612326538723678</v>
+        <v>0.09679549947556154</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.699845600755665</v>
+        <v>1.449330325878663</v>
       </c>
       <c r="H6">
-        <v>1.131001549360718</v>
+        <v>0.01162693293870026</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.006882629916526994</v>
       </c>
       <c r="J6">
-        <v>0.01977522688473243</v>
+        <v>0.9221064798699103</v>
       </c>
       <c r="K6">
-        <v>1.069681593793348</v>
+        <v>0.7877921821564655</v>
       </c>
       <c r="L6">
-        <v>0.2538778252771436</v>
+        <v>0.03427318629833742</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.083255900587751</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6234906968633567</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.400367313494797</v>
+        <v>1.869415570867801</v>
       </c>
       <c r="C7">
-        <v>0.06785310461351202</v>
+        <v>0.7019206710439221</v>
       </c>
       <c r="D7">
-        <v>0.2602357143996272</v>
+        <v>0.3185551226704462</v>
       </c>
       <c r="E7">
-        <v>0.06680078378192711</v>
+        <v>0.1001954004778014</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.718017287175442</v>
+        <v>1.490269403563843</v>
       </c>
       <c r="H7">
-        <v>1.136730773353094</v>
+        <v>0.01029607339129053</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00602674393719127</v>
       </c>
       <c r="J7">
-        <v>0.01970995761055372</v>
+        <v>0.9400439534321379</v>
       </c>
       <c r="K7">
-        <v>1.116258057185092</v>
+        <v>0.8007185035747781</v>
       </c>
       <c r="L7">
-        <v>0.2605840898394689</v>
+        <v>0.03595115619596534</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.070703987750619</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6535776841417871</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.632251188218135</v>
+        <v>2.260864593484655</v>
       </c>
       <c r="C8">
-        <v>0.07949781623006658</v>
+        <v>0.8511029340113225</v>
       </c>
       <c r="D8">
-        <v>0.2844342886318998</v>
+        <v>0.3619629534852322</v>
       </c>
       <c r="E8">
-        <v>0.0699628518824511</v>
+        <v>0.1152859901917971</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.803918934820956</v>
+        <v>1.680980939482282</v>
       </c>
       <c r="H8">
-        <v>1.165209704415219</v>
+        <v>0.005510185000352608</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002970544539969033</v>
       </c>
       <c r="J8">
-        <v>0.01943942835501433</v>
+        <v>1.024473857348795</v>
       </c>
       <c r="K8">
-        <v>1.324948863128185</v>
+        <v>0.8634711055881823</v>
       </c>
       <c r="L8">
-        <v>0.2909821907673802</v>
+        <v>0.04355813695577737</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.019395535415711</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.786291918756497</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.104874371005792</v>
+        <v>3.032221628090554</v>
       </c>
       <c r="C9">
-        <v>0.1026301155936267</v>
+        <v>1.145370223401756</v>
       </c>
       <c r="D9">
-        <v>0.3351116950915838</v>
+        <v>0.4485914483066153</v>
       </c>
       <c r="E9">
-        <v>0.07684827384500892</v>
+        <v>0.1452401784032524</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.995697895959296</v>
+        <v>2.077624026059198</v>
       </c>
       <c r="H9">
-        <v>1.233818319942088</v>
+        <v>0.0005634751250487291</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006669804094956433</v>
       </c>
       <c r="J9">
-        <v>0.01897230398771566</v>
+        <v>1.202007301747102</v>
       </c>
       <c r="K9">
-        <v>1.748269060534938</v>
+        <v>0.9981162528769829</v>
       </c>
       <c r="L9">
-        <v>0.353960679506045</v>
+        <v>0.05935495453418582</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.934514537320396</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.048150825272124</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.466271823775855</v>
+        <v>3.609992324434245</v>
       </c>
       <c r="C10">
-        <v>0.1199593563980841</v>
+        <v>1.364083847610061</v>
       </c>
       <c r="D10">
-        <v>0.3747351376657804</v>
+        <v>0.502368646998633</v>
       </c>
       <c r="E10">
-        <v>0.08239255218348163</v>
+        <v>0.1607746071314899</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.153733101775629</v>
+        <v>2.319616015614969</v>
       </c>
       <c r="H10">
-        <v>1.293333459794042</v>
+        <v>0.0002856590352400268</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002034061457392156</v>
       </c>
       <c r="J10">
-        <v>0.01866831714348649</v>
+        <v>1.307895020535142</v>
       </c>
       <c r="K10">
-        <v>2.07072850630928</v>
+        <v>1.069756284708369</v>
       </c>
       <c r="L10">
-        <v>0.4027826561345478</v>
+        <v>0.06781125028803103</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.882856931223813</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.228299879586672</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.634554835259337</v>
+        <v>3.940630359230681</v>
       </c>
       <c r="C11">
-        <v>0.1279533790181091</v>
+        <v>1.422880981183425</v>
       </c>
       <c r="D11">
-        <v>0.3933842978001678</v>
+        <v>0.4351754658577249</v>
       </c>
       <c r="E11">
-        <v>0.0850369420255177</v>
+        <v>0.1161669449866594</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.230066280616171</v>
+        <v>1.997587650246118</v>
       </c>
       <c r="H11">
-        <v>1.322713892533926</v>
+        <v>0.01889133978820823</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003160415766950919</v>
       </c>
       <c r="J11">
-        <v>0.01853869023886023</v>
+        <v>1.139320055754041</v>
       </c>
       <c r="K11">
-        <v>2.22061410178577</v>
+        <v>0.8829836185858895</v>
       </c>
       <c r="L11">
-        <v>0.4256697026041536</v>
+        <v>0.05009707251609097</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.861956387729734</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.182008953411682</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.698910491145455</v>
+        <v>4.101323200442494</v>
       </c>
       <c r="C12">
-        <v>0.13099996211659</v>
+        <v>1.419765433224143</v>
       </c>
       <c r="D12">
-        <v>0.4005455532768138</v>
+        <v>0.3719879082159423</v>
       </c>
       <c r="E12">
-        <v>0.08605741480869966</v>
+        <v>0.08475929746410316</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.259676690918639</v>
+        <v>1.709539916629979</v>
       </c>
       <c r="H12">
-        <v>1.334201464695639</v>
+        <v>0.057501116303186</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003219147087561325</v>
       </c>
       <c r="J12">
-        <v>0.01849086407048883</v>
+        <v>0.991714636368215</v>
       </c>
       <c r="K12">
-        <v>2.277896205762829</v>
+        <v>0.7342054854635904</v>
       </c>
       <c r="L12">
-        <v>0.4344451128375511</v>
+        <v>0.04923611551238238</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.854441376372279</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.104790061006469</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.685021079344381</v>
+        <v>4.138112619039362</v>
       </c>
       <c r="C13">
-        <v>0.1303429029579348</v>
+        <v>1.374058199739238</v>
       </c>
       <c r="D13">
-        <v>0.3989986757230639</v>
+        <v>0.3084963586797613</v>
       </c>
       <c r="E13">
-        <v>0.08583676259124218</v>
+        <v>0.0616972374302982</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.253267099620757</v>
+        <v>1.416935771249001</v>
       </c>
       <c r="H13">
-        <v>1.331710806061636</v>
+        <v>0.113150128385854</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002761735797163212</v>
       </c>
       <c r="J13">
-        <v>0.01850110794897475</v>
+        <v>0.8444599975499898</v>
       </c>
       <c r="K13">
-        <v>2.265535104598513</v>
+        <v>0.5970127029923233</v>
       </c>
       <c r="L13">
-        <v>0.4325501533126328</v>
+        <v>0.0609184395438902</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.856041657786605</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.000993295703005</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.639836337776103</v>
+        <v>4.107626630457901</v>
       </c>
       <c r="C14">
-        <v>0.1282036128246915</v>
+        <v>1.324127388471595</v>
       </c>
       <c r="D14">
-        <v>0.3939714126977236</v>
+        <v>0.2649988425118153</v>
       </c>
       <c r="E14">
-        <v>0.08512050495300372</v>
+        <v>0.05069915757881738</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.23248782345604</v>
+        <v>1.212506769201269</v>
       </c>
       <c r="H14">
-        <v>1.323651547076508</v>
+        <v>0.1624822301103279</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002358853891527346</v>
       </c>
       <c r="J14">
-        <v>0.01853473018727048</v>
+        <v>0.7426220824396523</v>
       </c>
       <c r="K14">
-        <v>2.225315851396374</v>
+        <v>0.5077129972622032</v>
       </c>
       <c r="L14">
-        <v>0.4263894171746756</v>
+        <v>0.07669789196065935</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.861329957818711</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.9174825634528787</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.612243758372699</v>
+        <v>4.073050542471833</v>
       </c>
       <c r="C15">
-        <v>0.1268958742863475</v>
+        <v>1.304441508104333</v>
       </c>
       <c r="D15">
-        <v>0.3909052864180467</v>
+        <v>0.2538174194828002</v>
       </c>
       <c r="E15">
-        <v>0.08468431125471554</v>
+        <v>0.04859181438537075</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.2198537535578</v>
+        <v>1.157062265065917</v>
       </c>
       <c r="H15">
-        <v>1.318763085017252</v>
+        <v>0.1750084862982533</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002293285234268083</v>
       </c>
       <c r="J15">
-        <v>0.01855548946274155</v>
+        <v>0.7155636155338669</v>
       </c>
       <c r="K15">
-        <v>2.200750598639246</v>
+        <v>0.485316007712008</v>
       </c>
       <c r="L15">
-        <v>0.4226302775131927</v>
+        <v>0.08110061362608434</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.864622042063786</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8917967602873986</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.455358271593013</v>
+        <v>3.813455528155316</v>
       </c>
       <c r="C16">
-        <v>0.1194394483743508</v>
+        <v>1.222338282345163</v>
       </c>
       <c r="D16">
-        <v>0.3735297214102502</v>
+        <v>0.2455045135390606</v>
       </c>
       <c r="E16">
-        <v>0.08222232203992874</v>
+        <v>0.0474734944785471</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.148839428707703</v>
+        <v>1.114344361442264</v>
       </c>
       <c r="H16">
-        <v>1.291462306941355</v>
+        <v>0.1625166682688928</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001793529336945099</v>
       </c>
       <c r="J16">
-        <v>0.01867696408798913</v>
+        <v>0.7003670979585337</v>
       </c>
       <c r="K16">
-        <v>2.06100279301549</v>
+        <v>0.482231134948826</v>
       </c>
       <c r="L16">
-        <v>0.4013014984617911</v>
+        <v>0.07484843202082203</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.884277278643822</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.839084175115957</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.360157640137913</v>
+        <v>3.631243032429097</v>
       </c>
       <c r="C17">
-        <v>0.1148959325675349</v>
+        <v>1.186079536017189</v>
       </c>
       <c r="D17">
-        <v>0.3630367203286511</v>
+        <v>0.261453366733889</v>
       </c>
       <c r="E17">
-        <v>0.08074432428755784</v>
+        <v>0.05146642876583485</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.10645713663547</v>
+        <v>1.186742816904513</v>
       </c>
       <c r="H17">
-        <v>1.275325513459222</v>
+        <v>0.1249720524903637</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001690970201716269</v>
       </c>
       <c r="J17">
-        <v>0.01875371296162065</v>
+        <v>0.7412433618851395</v>
       </c>
       <c r="K17">
-        <v>1.976134522368028</v>
+        <v>0.5252327228607427</v>
       </c>
       <c r="L17">
-        <v>0.3883981510969789</v>
+        <v>0.06034893083965898</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.897018356185569</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.842353860657191</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.305761381466198</v>
+        <v>3.495695852507936</v>
       </c>
       <c r="C18">
-        <v>0.1122928292922865</v>
+        <v>1.181720452418745</v>
       </c>
       <c r="D18">
-        <v>0.3570595662433362</v>
+        <v>0.3027386163809354</v>
       </c>
       <c r="E18">
-        <v>0.07990562896204167</v>
+        <v>0.06498193288200937</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.082493779732403</v>
+        <v>1.383180208873938</v>
       </c>
       <c r="H18">
-        <v>1.266259206079042</v>
+        <v>0.07216693795491125</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001448502078525316</v>
       </c>
       <c r="J18">
-        <v>0.01879867078680153</v>
+        <v>0.8432440863134048</v>
       </c>
       <c r="K18">
-        <v>1.927617300262426</v>
+        <v>0.6238250679204924</v>
       </c>
       <c r="L18">
-        <v>0.3810395481383324</v>
+        <v>0.04458454790699307</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.904589602227503</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8945498090643724</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.287403585022957</v>
+        <v>3.407736098625037</v>
       </c>
       <c r="C19">
-        <v>0.1114131160028222</v>
+        <v>1.209522929904267</v>
       </c>
       <c r="D19">
-        <v>0.3550455165121917</v>
+        <v>0.365564466215389</v>
       </c>
       <c r="E19">
-        <v>0.07962357679179632</v>
+        <v>0.09216392319300581</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.074449365003204</v>
+        <v>1.669234560663256</v>
       </c>
       <c r="H19">
-        <v>1.263225590445813</v>
+        <v>0.02668437428839354</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001608086222852023</v>
       </c>
       <c r="J19">
-        <v>0.01881403207666787</v>
+        <v>0.9885534761635029</v>
       </c>
       <c r="K19">
-        <v>1.911239321334904</v>
+        <v>0.7643363799057923</v>
       </c>
       <c r="L19">
-        <v>0.3785585600592896</v>
+        <v>0.04004961055417566</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.907194069499198</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9854824108768909</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.370254083693851</v>
+        <v>3.456762233457994</v>
       </c>
       <c r="C20">
-        <v>0.115378517140428</v>
+        <v>1.316442544213942</v>
       </c>
       <c r="D20">
-        <v>0.3641476349347954</v>
+        <v>0.4873627723160894</v>
       </c>
       <c r="E20">
-        <v>0.0809004682395269</v>
+        <v>0.1561462913887723</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.110925518034065</v>
+        <v>2.223505281383268</v>
       </c>
       <c r="H20">
-        <v>1.277020826371853</v>
+        <v>0.000118896029763782</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00219300260911659</v>
       </c>
       <c r="J20">
-        <v>0.01874545856974397</v>
+        <v>1.263643506312519</v>
       </c>
       <c r="K20">
-        <v>1.985137737006568</v>
+        <v>1.031368280577318</v>
       </c>
       <c r="L20">
-        <v>0.3897651305397432</v>
+        <v>0.06516972494931039</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.895636726575944</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.182003778123743</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.653090468016785</v>
+        <v>3.890556180575572</v>
       </c>
       <c r="C21">
-        <v>0.128831417622564</v>
+        <v>1.49291606799278</v>
       </c>
       <c r="D21">
-        <v>0.3954452690600903</v>
+        <v>0.5461458292916177</v>
       </c>
       <c r="E21">
-        <v>0.08533035602680172</v>
+        <v>0.1786933419575369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.238571518312284</v>
+        <v>2.495264345123019</v>
       </c>
       <c r="H21">
-        <v>1.326008671748298</v>
+        <v>0.0008369978372053666</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004237176910553586</v>
       </c>
       <c r="J21">
-        <v>0.0185248201699153</v>
+        <v>1.388118940452415</v>
       </c>
       <c r="K21">
-        <v>2.237114468231368</v>
+        <v>1.130502220297473</v>
       </c>
       <c r="L21">
-        <v>0.428195933813214</v>
+        <v>0.07792152056469703</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.859765592631433</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.344115010932029</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.841654331275606</v>
+        <v>4.179930170210525</v>
       </c>
       <c r="C22">
-        <v>0.1377387438387672</v>
+        <v>1.602835242668448</v>
       </c>
       <c r="D22">
-        <v>0.4164834752672562</v>
+        <v>0.5794778672658367</v>
       </c>
       <c r="E22">
-        <v>0.08833768041388623</v>
+        <v>0.190224361095833</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.326138377930306</v>
+        <v>2.661959688989384</v>
       </c>
       <c r="H22">
-        <v>1.360150308883902</v>
+        <v>0.002139893256072778</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005993883454376459</v>
       </c>
       <c r="J22">
-        <v>0.01838797749042254</v>
+        <v>1.464038536388784</v>
       </c>
       <c r="K22">
-        <v>2.404882490443555</v>
+        <v>1.190587116911672</v>
       </c>
       <c r="L22">
-        <v>0.453951541463482</v>
+        <v>0.08460717268521734</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.838664662135542</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.442456620726972</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.740648664744867</v>
+        <v>4.025933577393175</v>
       </c>
       <c r="C23">
-        <v>0.1329729610086758</v>
+        <v>1.540018768948187</v>
       </c>
       <c r="D23">
-        <v>0.4051982479238063</v>
+        <v>0.5617892809073908</v>
       </c>
       <c r="E23">
-        <v>0.08672181527628098</v>
+        <v>0.1841535766025686</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.278999743323169</v>
+        <v>2.584310108044662</v>
       </c>
       <c r="H23">
-        <v>1.341723071241233</v>
+        <v>0.001378196791843589</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004717806587539286</v>
       </c>
       <c r="J23">
-        <v>0.01846033408973646</v>
+        <v>1.429221261349113</v>
       </c>
       <c r="K23">
-        <v>2.315036340620679</v>
+        <v>1.16550192966254</v>
       </c>
       <c r="L23">
-        <v>0.4401428717376064</v>
+        <v>0.08109711234118322</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.849703009556691</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.389212934401712</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.365688440843201</v>
+        <v>3.444615238369238</v>
       </c>
       <c r="C24">
-        <v>0.1151603128042353</v>
+        <v>1.311746086481776</v>
       </c>
       <c r="D24">
-        <v>0.3636452185493653</v>
+        <v>0.4952837597520556</v>
       </c>
       <c r="E24">
-        <v>0.0808298413305728</v>
+        <v>0.1612546803562012</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.108904113115756</v>
+        <v>2.27605811715523</v>
       </c>
       <c r="H24">
-        <v>1.27625372058418</v>
+        <v>3.627903233383023E-06</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001740362956080155</v>
       </c>
       <c r="J24">
-        <v>0.01874918778416035</v>
+        <v>1.290238007026602</v>
       </c>
       <c r="K24">
-        <v>1.981066532867459</v>
+        <v>1.060668055651583</v>
       </c>
       <c r="L24">
-        <v>0.3891469339995695</v>
+        <v>0.06811373910669261</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.896260596293246</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.190175698162165</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.974781997404364</v>
+        <v>2.822216186972184</v>
       </c>
       <c r="C25">
-        <v>0.09632547010433257</v>
+        <v>1.070813247859633</v>
       </c>
       <c r="D25">
-        <v>0.3210151616752768</v>
+        <v>0.4247737038907786</v>
       </c>
       <c r="E25">
-        <v>0.07490558907553435</v>
+        <v>0.1369527975762246</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.941033501079716</v>
+        <v>1.952032689088156</v>
       </c>
       <c r="H25">
-        <v>1.213761417990668</v>
+        <v>0.001386612875283966</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001229984254328187</v>
       </c>
       <c r="J25">
-        <v>0.01909183382415236</v>
+        <v>1.144689826900418</v>
       </c>
       <c r="K25">
-        <v>1.631961535988921</v>
+        <v>0.9507625535052</v>
       </c>
       <c r="L25">
-        <v>0.336513831141076</v>
+        <v>0.05486322615426431</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.955683830277891</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.977982934402803</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.367665717281454</v>
+        <v>2.362263942887125</v>
       </c>
       <c r="C2">
-        <v>0.8873263318847364</v>
+        <v>1.022180457655338</v>
       </c>
       <c r="D2">
-        <v>0.37396014307879</v>
+        <v>0.3729029913980781</v>
       </c>
       <c r="E2">
-        <v>0.119493800418109</v>
+        <v>0.1190965080977868</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.746537401028377</v>
+        <v>1.346592831661241</v>
       </c>
       <c r="H2">
-        <v>0.004481363122680104</v>
+        <v>0.003893961429351278</v>
       </c>
       <c r="I2">
-        <v>0.002069263502983532</v>
+        <v>0.001391817919123461</v>
       </c>
       <c r="J2">
-        <v>1.054421953392023</v>
+        <v>0.8901635505409615</v>
       </c>
       <c r="K2">
-        <v>0.8888931437264276</v>
+        <v>0.6488067004921092</v>
       </c>
       <c r="L2">
-        <v>0.04574642323999711</v>
+        <v>0.291318872840975</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2010443417704906</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04603183756887574</v>
       </c>
       <c r="O2">
-        <v>0.8215866200628881</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8474018381024067</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.059726238990777</v>
+        <v>2.057051708824872</v>
       </c>
       <c r="C3">
-        <v>0.7701442853438607</v>
+        <v>0.8834403458739359</v>
       </c>
       <c r="D3">
-        <v>0.3396926288056221</v>
+        <v>0.3398899591823721</v>
       </c>
       <c r="E3">
-        <v>0.1076019773947223</v>
+        <v>0.1080938944505796</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.59373405008705</v>
+        <v>1.249450939205431</v>
       </c>
       <c r="H3">
-        <v>0.007740849033019193</v>
+        <v>0.006676036028751053</v>
       </c>
       <c r="I3">
-        <v>0.00404967299391501</v>
+        <v>0.002646421266947474</v>
       </c>
       <c r="J3">
-        <v>0.9865291192764403</v>
+        <v>0.8416511747431059</v>
       </c>
       <c r="K3">
-        <v>0.8380203552123291</v>
+        <v>0.6272674587688272</v>
       </c>
       <c r="L3">
-        <v>0.03967711971998256</v>
+        <v>0.2899543710111345</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1871882835998164</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.04065529352517316</v>
       </c>
       <c r="O3">
-        <v>0.7171923612477187</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.73922548581168</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.870860469452424</v>
+        <v>1.869556084029256</v>
       </c>
       <c r="C4">
-        <v>0.6990204335475596</v>
+        <v>0.7992252360428438</v>
       </c>
       <c r="D4">
-        <v>0.3187849067453925</v>
+        <v>0.3197502940084576</v>
       </c>
       <c r="E4">
-        <v>0.1003133654922976</v>
+        <v>0.1013379215535544</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.500407475356752</v>
+        <v>1.190171756137715</v>
       </c>
       <c r="H4">
-        <v>0.01026253266998128</v>
+        <v>0.008825806174624168</v>
       </c>
       <c r="I4">
-        <v>0.005738516869673749</v>
+        <v>0.003772247479116864</v>
       </c>
       <c r="J4">
-        <v>0.9451633730355979</v>
+        <v>0.8116333223279781</v>
       </c>
       <c r="K4">
-        <v>0.806839019022128</v>
+        <v>0.6139298942402078</v>
       </c>
       <c r="L4">
-        <v>0.03602763958238597</v>
+        <v>0.2888253227816406</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1794316354030059</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03739355691997126</v>
       </c>
       <c r="O4">
-        <v>0.6533517097858379</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6730198164401244</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.793804003001526</v>
+        <v>1.792999892349428</v>
       </c>
       <c r="C5">
-        <v>0.6711995004659457</v>
+        <v>0.7660485103567396</v>
       </c>
       <c r="D5">
-        <v>0.3102586634419566</v>
+        <v>0.3115420233341837</v>
       </c>
       <c r="E5">
-        <v>0.09732080550133659</v>
+        <v>0.09856288194895413</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.459604212644706</v>
+        <v>1.163885433116818</v>
       </c>
       <c r="H5">
-        <v>0.0114201016357518</v>
+        <v>0.009811955141152795</v>
       </c>
       <c r="I5">
-        <v>0.006621233987036845</v>
+        <v>0.004407814114632203</v>
       </c>
       <c r="J5">
-        <v>0.9269151208193023</v>
+        <v>0.7981822940615473</v>
       </c>
       <c r="K5">
-        <v>0.7923620758275192</v>
+        <v>0.6071798657579563</v>
       </c>
       <c r="L5">
-        <v>0.03453977469004244</v>
+        <v>0.287736395588972</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1760495754258393</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03605746320616987</v>
       </c>
       <c r="O5">
-        <v>0.627560456357493</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6462361413278686</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.780863462297901</v>
+        <v>1.780151982440202</v>
       </c>
       <c r="C6">
-        <v>0.6677878612737231</v>
+        <v>0.7616785785682225</v>
       </c>
       <c r="D6">
-        <v>0.3088023809071672</v>
+        <v>0.3101445053810465</v>
       </c>
       <c r="E6">
-        <v>0.09679549947556154</v>
+        <v>0.09807750415277283</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.449330325878663</v>
+        <v>1.156839592476601</v>
       </c>
       <c r="H6">
-        <v>0.01162693293870026</v>
+        <v>0.009987598283504068</v>
       </c>
       <c r="I6">
-        <v>0.006882629916526994</v>
+        <v>0.004640137595768756</v>
       </c>
       <c r="J6">
-        <v>0.9221064798699103</v>
+        <v>0.7945334351728377</v>
       </c>
       <c r="K6">
-        <v>0.7877921821564655</v>
+        <v>0.6044938991929385</v>
       </c>
       <c r="L6">
-        <v>0.03427318629833742</v>
+        <v>0.2868746714334165</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1750034531946909</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03581837237598151</v>
       </c>
       <c r="O6">
-        <v>0.6234906968633567</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6419769147913073</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.869415570867801</v>
+        <v>1.86824654290217</v>
       </c>
       <c r="C7">
-        <v>0.7019206710439221</v>
+        <v>0.8004500759602138</v>
       </c>
       <c r="D7">
-        <v>0.3185551226704462</v>
+        <v>0.3195399747158945</v>
       </c>
       <c r="E7">
-        <v>0.1001954004778014</v>
+        <v>0.101229019059641</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.490269403563843</v>
+        <v>1.185351848835197</v>
       </c>
       <c r="H7">
-        <v>0.01029607339129053</v>
+        <v>0.008864076792780812</v>
       </c>
       <c r="I7">
-        <v>0.00602674393719127</v>
+        <v>0.004100634964462557</v>
       </c>
       <c r="J7">
-        <v>0.9400439534321379</v>
+        <v>0.7976088329286029</v>
       </c>
       <c r="K7">
-        <v>0.8007185035747781</v>
+        <v>0.607567054089543</v>
       </c>
       <c r="L7">
-        <v>0.03595115619596534</v>
+        <v>0.2861374137569754</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1773547259625126</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03731681283860233</v>
       </c>
       <c r="O7">
-        <v>0.6535776841417871</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.672927308873561</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.260864593484655</v>
+        <v>2.256815027841981</v>
       </c>
       <c r="C8">
-        <v>0.8511029340113225</v>
+        <v>0.9734887894828432</v>
       </c>
       <c r="D8">
-        <v>0.3619629534852322</v>
+        <v>0.3613634257664131</v>
       </c>
       <c r="E8">
-        <v>0.1152859901917971</v>
+        <v>0.1152009973217574</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.680980939482282</v>
+        <v>1.312987305845439</v>
       </c>
       <c r="H8">
-        <v>0.005510185000352608</v>
+        <v>0.00479674492455695</v>
       </c>
       <c r="I8">
-        <v>0.002970544539969033</v>
+        <v>0.002131242032970881</v>
       </c>
       <c r="J8">
-        <v>1.024473857348795</v>
+        <v>0.8355297359221794</v>
       </c>
       <c r="K8">
-        <v>0.8634711055881823</v>
+        <v>0.629237582054337</v>
       </c>
       <c r="L8">
-        <v>0.04355813695577737</v>
+        <v>0.285986490122724</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1919031342308806</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04406886625845274</v>
       </c>
       <c r="O8">
-        <v>0.786291918756497</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8099152718120735</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.032221628090554</v>
+        <v>3.019322089591299</v>
       </c>
       <c r="C9">
-        <v>1.145370223401756</v>
+        <v>1.321102315421285</v>
       </c>
       <c r="D9">
-        <v>0.4485914483066153</v>
+        <v>0.4448059031279428</v>
       </c>
       <c r="E9">
-        <v>0.1452401784032524</v>
+        <v>0.1428224389071353</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.077624026059198</v>
+        <v>1.570026366656407</v>
       </c>
       <c r="H9">
-        <v>0.0005634751250487291</v>
+        <v>0.0005317290187012436</v>
       </c>
       <c r="I9">
-        <v>0.0006669804094956433</v>
+        <v>0.0008367547363352656</v>
       </c>
       <c r="J9">
-        <v>1.202007301747102</v>
+        <v>0.950855564166261</v>
       </c>
       <c r="K9">
-        <v>0.9981162528769829</v>
+        <v>0.6859158177141467</v>
       </c>
       <c r="L9">
-        <v>0.05935495453418582</v>
+        <v>0.289518653933456</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2316041462582064</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.05786302983605296</v>
       </c>
       <c r="O9">
-        <v>1.048150825272124</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.080705662379373</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.609992324434245</v>
+        <v>3.589261064606774</v>
       </c>
       <c r="C10">
-        <v>1.364083847610061</v>
+        <v>1.567234367087963</v>
       </c>
       <c r="D10">
-        <v>0.502368646998633</v>
+        <v>0.4963831337552449</v>
       </c>
       <c r="E10">
-        <v>0.1607746071314899</v>
+        <v>0.1566890619746033</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.319616015614969</v>
+        <v>1.741799133147111</v>
       </c>
       <c r="H10">
-        <v>0.0002856590352400268</v>
+        <v>0.0002411044251791061</v>
       </c>
       <c r="I10">
-        <v>0.002034061457392156</v>
+        <v>0.002185971790886754</v>
       </c>
       <c r="J10">
-        <v>1.307895020535142</v>
+        <v>0.9597404208994647</v>
       </c>
       <c r="K10">
-        <v>1.069756284708369</v>
+        <v>0.6988114633185063</v>
       </c>
       <c r="L10">
-        <v>0.06781125028803103</v>
+        <v>0.2805250348790551</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2534586422711484</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06471071575886</v>
       </c>
       <c r="O10">
-        <v>1.228299879586672</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.264741485680759</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.940630359230681</v>
+        <v>3.920799026665236</v>
       </c>
       <c r="C11">
-        <v>1.422880981183425</v>
+        <v>1.591922196455357</v>
       </c>
       <c r="D11">
-        <v>0.4351754658577249</v>
+        <v>0.429860052841704</v>
       </c>
       <c r="E11">
-        <v>0.1161669449866594</v>
+        <v>0.1127231294468523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.997587650246118</v>
+        <v>1.541551656024041</v>
       </c>
       <c r="H11">
-        <v>0.01889133978820823</v>
+        <v>0.01882074294465141</v>
       </c>
       <c r="I11">
-        <v>0.003160415766950919</v>
+        <v>0.003293562907852099</v>
       </c>
       <c r="J11">
-        <v>1.139320055754041</v>
+        <v>0.7371605945638322</v>
       </c>
       <c r="K11">
-        <v>0.8829836185858895</v>
+        <v>0.5559517735037218</v>
       </c>
       <c r="L11">
-        <v>0.05009707251609097</v>
+        <v>0.2246642391652784</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2037709339711711</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04766611266554754</v>
       </c>
       <c r="O11">
-        <v>1.182008953411682</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.21132788095683</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.101323200442494</v>
+        <v>4.083822971873872</v>
       </c>
       <c r="C12">
-        <v>1.419765433224143</v>
+        <v>1.559814680604006</v>
       </c>
       <c r="D12">
-        <v>0.3719879082159423</v>
+        <v>0.3675440394486742</v>
       </c>
       <c r="E12">
-        <v>0.08475929746410316</v>
+        <v>0.08203583295711425</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.709539916629979</v>
+        <v>1.347133677073202</v>
       </c>
       <c r="H12">
-        <v>0.057501116303186</v>
+        <v>0.05744974152131022</v>
       </c>
       <c r="I12">
-        <v>0.003219147087561325</v>
+        <v>0.003341873500945169</v>
       </c>
       <c r="J12">
-        <v>0.991714636368215</v>
+        <v>0.6034626071238023</v>
       </c>
       <c r="K12">
-        <v>0.7342054854635904</v>
+        <v>0.4574016164973997</v>
       </c>
       <c r="L12">
-        <v>0.04923611551238238</v>
+        <v>0.1890275366305048</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1660269842981954</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0475032394141337</v>
       </c>
       <c r="O12">
-        <v>1.104790061006469</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.128600556096231</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.138112619039362</v>
+        <v>4.124030994880172</v>
       </c>
       <c r="C13">
-        <v>1.374058199739238</v>
+        <v>1.490917550117445</v>
       </c>
       <c r="D13">
-        <v>0.3084963586797613</v>
+        <v>0.3050887220342702</v>
       </c>
       <c r="E13">
-        <v>0.0616972374302982</v>
+        <v>0.05981381248120599</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.416935771249001</v>
+        <v>1.130419902313918</v>
       </c>
       <c r="H13">
-        <v>0.113150128385854</v>
+        <v>0.1131461908765488</v>
       </c>
       <c r="I13">
-        <v>0.002761735797163212</v>
+        <v>0.002975956487712317</v>
       </c>
       <c r="J13">
-        <v>0.8444599975499898</v>
+        <v>0.5273105970930487</v>
       </c>
       <c r="K13">
-        <v>0.5970127029923233</v>
+        <v>0.3809628027657226</v>
       </c>
       <c r="L13">
-        <v>0.0609184395438902</v>
+        <v>0.1633826571639503</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1339375091573416</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06003577065017751</v>
       </c>
       <c r="O13">
-        <v>1.000993295703005</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.020608846622423</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.107626630457901</v>
+        <v>4.096351253585965</v>
       </c>
       <c r="C14">
-        <v>1.324127388471595</v>
+        <v>1.427075496150223</v>
       </c>
       <c r="D14">
-        <v>0.2649988425118153</v>
+        <v>0.2623614787760573</v>
       </c>
       <c r="E14">
-        <v>0.05069915757881738</v>
+        <v>0.04943915065967275</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.212506769201269</v>
+        <v>0.9720177328041046</v>
       </c>
       <c r="H14">
-        <v>0.1624822301103279</v>
+        <v>0.1625025717774662</v>
       </c>
       <c r="I14">
-        <v>0.002358853891527346</v>
+        <v>0.002670097782424996</v>
       </c>
       <c r="J14">
-        <v>0.7426220824396523</v>
+        <v>0.4935732815362996</v>
       </c>
       <c r="K14">
-        <v>0.5077129972622032</v>
+        <v>0.3362657586973725</v>
       </c>
       <c r="L14">
-        <v>0.07669789196065935</v>
+        <v>0.1491186046481268</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1139920381959421</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0764638582167585</v>
       </c>
       <c r="O14">
-        <v>0.9174825634528787</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.9346428213781479</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.073050542471833</v>
+        <v>4.06267876354633</v>
       </c>
       <c r="C15">
-        <v>1.304441508104333</v>
+        <v>1.404796862444755</v>
       </c>
       <c r="D15">
-        <v>0.2538174194828002</v>
+        <v>0.2514191998888577</v>
       </c>
       <c r="E15">
-        <v>0.04859181438537075</v>
+        <v>0.04753216155328666</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.157062265065917</v>
+        <v>0.9267681133954824</v>
       </c>
       <c r="H15">
-        <v>0.1750084862982533</v>
+        <v>0.1750325940860193</v>
       </c>
       <c r="I15">
-        <v>0.002293285234268083</v>
+        <v>0.002658493288668851</v>
       </c>
       <c r="J15">
-        <v>0.7155636155338669</v>
+        <v>0.4917421288254502</v>
       </c>
       <c r="K15">
-        <v>0.485316007712008</v>
+        <v>0.3269112504604337</v>
       </c>
       <c r="L15">
-        <v>0.08110061362608434</v>
+        <v>0.1464197451701317</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1093176432471736</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08108922528704454</v>
       </c>
       <c r="O15">
-        <v>0.8917967602873986</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.9085000148245825</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.813455528155316</v>
+        <v>3.805050828202127</v>
       </c>
       <c r="C16">
-        <v>1.222338282345163</v>
+        <v>1.329116415183535</v>
       </c>
       <c r="D16">
-        <v>0.2455045135390606</v>
+        <v>0.2436643507075473</v>
       </c>
       <c r="E16">
-        <v>0.0474734944785471</v>
+        <v>0.04693584258840255</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.114344361442264</v>
+        <v>0.8767291719926931</v>
       </c>
       <c r="H16">
-        <v>0.1625166682688928</v>
+        <v>0.1625110263022123</v>
       </c>
       <c r="I16">
-        <v>0.001793529336945099</v>
+        <v>0.002232145062548874</v>
       </c>
       <c r="J16">
-        <v>0.7003670979585337</v>
+        <v>0.5537629973814404</v>
       </c>
       <c r="K16">
-        <v>0.482231134948826</v>
+        <v>0.3435542278158543</v>
       </c>
       <c r="L16">
-        <v>0.07484843202082203</v>
+        <v>0.1548325141333926</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1116818788136094</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0755090938842784</v>
       </c>
       <c r="O16">
-        <v>0.839084175115957</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.8569522458681078</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.631243032429097</v>
+        <v>3.622988001901604</v>
       </c>
       <c r="C17">
-        <v>1.186079536017189</v>
+        <v>1.302917715057163</v>
       </c>
       <c r="D17">
-        <v>0.261453366733889</v>
+        <v>0.2596749270648502</v>
       </c>
       <c r="E17">
-        <v>0.05146642876583485</v>
+        <v>0.05099834499379963</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.186742816904513</v>
+        <v>0.9223326707256803</v>
       </c>
       <c r="H17">
-        <v>0.1249720524903637</v>
+        <v>0.124924982475477</v>
       </c>
       <c r="I17">
-        <v>0.001690970201716269</v>
+        <v>0.002122219191265096</v>
       </c>
       <c r="J17">
-        <v>0.7412433618851395</v>
+        <v>0.6160407640425234</v>
       </c>
       <c r="K17">
-        <v>0.5252327228607427</v>
+        <v>0.3792100682248183</v>
       </c>
       <c r="L17">
-        <v>0.06034893083965898</v>
+        <v>0.1692459095145615</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1231599043786744</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06113259497488244</v>
       </c>
       <c r="O17">
-        <v>0.842353860657191</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.8621280106480498</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.495695852507936</v>
+        <v>3.485983930647308</v>
       </c>
       <c r="C18">
-        <v>1.181720452418745</v>
+        <v>1.316473910465334</v>
       </c>
       <c r="D18">
-        <v>0.3027386163809354</v>
+        <v>0.3005290621624823</v>
       </c>
       <c r="E18">
-        <v>0.06498193288200937</v>
+        <v>0.06415450678672485</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.383180208873938</v>
+        <v>1.061301052248851</v>
       </c>
       <c r="H18">
-        <v>0.07216693795491125</v>
+        <v>0.07211484861720407</v>
       </c>
       <c r="I18">
-        <v>0.001448502078525316</v>
+        <v>0.001823547661310876</v>
       </c>
       <c r="J18">
-        <v>0.8432440863134048</v>
+        <v>0.7050163762035595</v>
       </c>
       <c r="K18">
-        <v>0.6238250679204924</v>
+        <v>0.4453301195657033</v>
       </c>
       <c r="L18">
-        <v>0.04458454790699307</v>
+        <v>0.1943116377877168</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1473362907364226</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04501374335174546</v>
       </c>
       <c r="O18">
-        <v>0.8945498090643724</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.9177935263268537</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.407736098625037</v>
+        <v>3.395433010891225</v>
       </c>
       <c r="C19">
-        <v>1.209522929904267</v>
+        <v>1.368272483585486</v>
       </c>
       <c r="D19">
-        <v>0.365564466215389</v>
+        <v>0.3624751832206385</v>
       </c>
       <c r="E19">
-        <v>0.09216392319300581</v>
+        <v>0.09056657358047104</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.669234560663256</v>
+        <v>1.264561313190654</v>
       </c>
       <c r="H19">
-        <v>0.02668437428839354</v>
+        <v>0.02666364731646809</v>
       </c>
       <c r="I19">
-        <v>0.001608086222852023</v>
+        <v>0.002016420908139693</v>
       </c>
       <c r="J19">
-        <v>0.9885534761635029</v>
+        <v>0.8145449179511957</v>
       </c>
       <c r="K19">
-        <v>0.7643363799057923</v>
+        <v>0.5340738958927247</v>
       </c>
       <c r="L19">
-        <v>0.04004961055417566</v>
+        <v>0.2271173188987348</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1811249153319672</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.03965180381382694</v>
       </c>
       <c r="O19">
-        <v>0.9854824108768909</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.013447681459908</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.456762233457994</v>
+        <v>3.438219273599714</v>
       </c>
       <c r="C20">
-        <v>1.316442544213942</v>
+        <v>1.517034562403637</v>
       </c>
       <c r="D20">
-        <v>0.4873627723160894</v>
+        <v>0.4820116878946976</v>
       </c>
       <c r="E20">
-        <v>0.1561462913887723</v>
+        <v>0.1525643238069243</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.223505281383268</v>
+        <v>1.661660885003414</v>
       </c>
       <c r="H20">
-        <v>0.000118896029763782</v>
+        <v>0.0001186341688987902</v>
       </c>
       <c r="I20">
-        <v>0.00219300260911659</v>
+        <v>0.002584091586951054</v>
       </c>
       <c r="J20">
-        <v>1.263643506312519</v>
+        <v>0.9797902340122278</v>
       </c>
       <c r="K20">
-        <v>1.031368280577318</v>
+        <v>0.6890660086770453</v>
       </c>
       <c r="L20">
-        <v>0.06516972494931039</v>
+        <v>0.2806007200765208</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2450447937562501</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06259698547599513</v>
       </c>
       <c r="O20">
-        <v>1.182003778123743</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.218145781417221</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.890556180575572</v>
+        <v>3.865755846774334</v>
       </c>
       <c r="C21">
-        <v>1.49291606799278</v>
+        <v>1.691654358499477</v>
       </c>
       <c r="D21">
-        <v>0.5461458292916177</v>
+        <v>0.5388654577692762</v>
       </c>
       <c r="E21">
-        <v>0.1786933419575369</v>
+        <v>0.1734875113943843</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.495264345123019</v>
+        <v>1.913311466038465</v>
       </c>
       <c r="H21">
-        <v>0.0008369978372053666</v>
+        <v>0.0005707410194015772</v>
       </c>
       <c r="I21">
-        <v>0.004237176910553586</v>
+        <v>0.00417833718266003</v>
       </c>
       <c r="J21">
-        <v>1.388118940452415</v>
+        <v>0.8437113750176763</v>
       </c>
       <c r="K21">
-        <v>1.130502220297473</v>
+        <v>0.6904098136939325</v>
       </c>
       <c r="L21">
-        <v>0.07792152056469703</v>
+        <v>0.2708422377775364</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2591394124345427</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07350656926178445</v>
       </c>
       <c r="O21">
-        <v>1.344115010932029</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.379253374634317</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.179930170210525</v>
+        <v>4.150671026259658</v>
       </c>
       <c r="C22">
-        <v>1.602835242668448</v>
+        <v>1.795982360302162</v>
       </c>
       <c r="D22">
-        <v>0.5794778672658367</v>
+        <v>0.5710254807000865</v>
       </c>
       <c r="E22">
-        <v>0.190224361095833</v>
+        <v>0.184018423353713</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.661959688989384</v>
+        <v>2.078402501142136</v>
       </c>
       <c r="H22">
-        <v>0.002139893256072778</v>
+        <v>0.001517014195229871</v>
       </c>
       <c r="I22">
-        <v>0.005993883454376459</v>
+        <v>0.005319799190406371</v>
       </c>
       <c r="J22">
-        <v>1.464038536388784</v>
+        <v>0.7482268145569435</v>
       </c>
       <c r="K22">
-        <v>1.190587116911672</v>
+        <v>0.6859324472490087</v>
       </c>
       <c r="L22">
-        <v>0.08460717268521734</v>
+        <v>0.2627244274146889</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2665657562986752</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0789975158957148</v>
       </c>
       <c r="O22">
-        <v>1.442456620726972</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.4759680702564</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.025933577393175</v>
+        <v>3.998822546714393</v>
       </c>
       <c r="C23">
-        <v>1.540018768948187</v>
+        <v>1.740456278925024</v>
       </c>
       <c r="D23">
-        <v>0.5617892809073908</v>
+        <v>0.5539186810482875</v>
       </c>
       <c r="E23">
-        <v>0.1841535766025686</v>
+        <v>0.1784625296412159</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.584310108044662</v>
+        <v>1.990153962467957</v>
       </c>
       <c r="H23">
-        <v>0.001378196791843589</v>
+        <v>0.0009677235054674771</v>
       </c>
       <c r="I23">
-        <v>0.004717806587539286</v>
+        <v>0.004341425325557147</v>
       </c>
       <c r="J23">
-        <v>1.429221261349113</v>
+        <v>0.823699207814343</v>
       </c>
       <c r="K23">
-        <v>1.16550192966254</v>
+        <v>0.6977181492936779</v>
       </c>
       <c r="L23">
-        <v>0.08109711234118322</v>
+        <v>0.2702668619403497</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2664102243308832</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07613605270416457</v>
       </c>
       <c r="O23">
-        <v>1.389212934401712</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.424399454810626</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.444615238369238</v>
+        <v>3.42570565895744</v>
       </c>
       <c r="C24">
-        <v>1.311746086481776</v>
+        <v>1.515253587357051</v>
       </c>
       <c r="D24">
-        <v>0.4952837597520556</v>
+        <v>0.4897825604623733</v>
       </c>
       <c r="E24">
-        <v>0.1612546803562012</v>
+        <v>0.1575368032787701</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.27605811715523</v>
+        <v>1.699027959670872</v>
       </c>
       <c r="H24">
-        <v>3.627903233383023E-06</v>
+        <v>1.069674757658845E-07</v>
       </c>
       <c r="I24">
-        <v>0.001740362956080155</v>
+        <v>0.002026769812474072</v>
       </c>
       <c r="J24">
-        <v>1.290238007026602</v>
+        <v>1.000794575629783</v>
       </c>
       <c r="K24">
-        <v>1.060668055651583</v>
+        <v>0.7083601756480959</v>
       </c>
       <c r="L24">
-        <v>0.06811373910669261</v>
+        <v>0.2877309637141607</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.252383567735734</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06539030145011893</v>
       </c>
       <c r="O24">
-        <v>1.190175698162165</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.226987401404202</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.822216186972184</v>
+        <v>2.812051343584187</v>
       </c>
       <c r="C25">
-        <v>1.070813247859633</v>
+        <v>1.233763207260552</v>
       </c>
       <c r="D25">
-        <v>0.4247737038907786</v>
+        <v>0.4218900549692677</v>
       </c>
       <c r="E25">
-        <v>0.1369527975762246</v>
+        <v>0.1352125026489261</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.952032689088156</v>
+        <v>1.48253752382746</v>
       </c>
       <c r="H25">
-        <v>0.001386612875283966</v>
+        <v>0.001246442101303424</v>
       </c>
       <c r="I25">
-        <v>0.001229984254328187</v>
+        <v>0.001330741634129495</v>
       </c>
       <c r="J25">
-        <v>1.144689826900418</v>
+        <v>0.9271200104217598</v>
       </c>
       <c r="K25">
-        <v>0.9507625535052</v>
+        <v>0.6659670413235119</v>
       </c>
       <c r="L25">
-        <v>0.05486322615426431</v>
+        <v>0.2870460536482398</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2184422842904112</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.0539916095872961</v>
       </c>
       <c r="O25">
-        <v>0.977982934402803</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.008419049383591</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
